--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_5_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_5_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1916576.431194997</v>
+        <v>1915985.741167389</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736567</v>
+        <v>504792.0292736565</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.80887247914135</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.00967878293136</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="G2" t="n">
-        <v>135.7293992974318</v>
+        <v>29.81855126207271</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="T2" t="n">
+      <c r="X2" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>127.8386392216614</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>99.31363641129199</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,44 +826,44 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>119.5504549011779</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="G4" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="H4" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>59.456666199969</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>38.15196793284785</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>21.94182076836098</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="F5" t="n">
-        <v>10.00967878293136</v>
-      </c>
       <c r="G5" t="n">
-        <v>11.94294668035388</v>
+        <v>29.81855126207271</v>
       </c>
       <c r="H5" t="n">
-        <v>7.865925798787461</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,17 +944,17 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="D6" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="E6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>28.9001603428925</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
     </row>
     <row r="7">
@@ -1051,76 +1051,76 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
       <c r="D7" t="n">
-        <v>81.39848696833002</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>119.5504549011778</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>38.15196793284785</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>256.7000723435588</v>
       </c>
       <c r="F8" t="n">
-        <v>74.26095569072858</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V9" t="n">
-        <v>46.74539589871718</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>67.51496150417915</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>26.61010385670627</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>282.5082015186659</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>270.5195184763477</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>261.5008225208757</v>
+        <v>256.2445269477165</v>
       </c>
       <c r="E11" t="n">
-        <v>283.2429600907812</v>
+        <v>283.2429600907811</v>
       </c>
       <c r="F11" t="n">
-        <v>302.4147761787584</v>
+        <v>302.4147761787583</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>304.0604309302996</v>
       </c>
       <c r="H11" t="n">
         <v>218.9526409242344</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.20779845000753</v>
+        <v>71.20779845000752</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>113.2614276560307</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>226.0145787588451</v>
+        <v>226.014578758845</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>251.3146782368019</v>
       </c>
       <c r="X11" t="n">
-        <v>110.3525212549605</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>282.0115342657473</v>
@@ -1464,7 +1464,7 @@
         <v>127.287328377244</v>
       </c>
       <c r="H12" t="n">
-        <v>97.4522582974143</v>
+        <v>47.50613338417661</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.63195820980194</v>
+        <v>49.63195820980197</v>
       </c>
       <c r="S12" t="n">
         <v>148.4131160220025</v>
@@ -1503,7 +1503,7 @@
         <v>186.1779818082701</v>
       </c>
       <c r="U12" t="n">
-        <v>166.3535954460346</v>
+        <v>216.2997203592713</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.12491239336302</v>
+        <v>74.12491239336299</v>
       </c>
       <c r="C13" t="n">
-        <v>60.3249072387635</v>
+        <v>60.32490723876347</v>
       </c>
       <c r="D13" t="n">
-        <v>43.94627163634189</v>
+        <v>43.94627163634186</v>
       </c>
       <c r="E13" t="n">
-        <v>42.89402149212134</v>
+        <v>42.89402149212131</v>
       </c>
       <c r="F13" t="n">
-        <v>43.36094582030765</v>
+        <v>43.36094582030762</v>
       </c>
       <c r="G13" t="n">
-        <v>59.50663518584932</v>
+        <v>59.50663518584929</v>
       </c>
       <c r="H13" t="n">
-        <v>49.03697014636023</v>
+        <v>49.0369701463602</v>
       </c>
       <c r="I13" t="n">
-        <v>31.28632788547727</v>
+        <v>31.28632788547725</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>122.7010221644059</v>
       </c>
       <c r="U13" t="n">
-        <v>176.7163974194832</v>
+        <v>176.7163974194839</v>
       </c>
       <c r="V13" t="n">
         <v>150.5330487929886</v>
       </c>
       <c r="W13" t="n">
-        <v>175.6999348636019</v>
+        <v>175.6999348636018</v>
       </c>
       <c r="X13" t="n">
         <v>121.345036859405</v>
       </c>
       <c r="Y13" t="n">
-        <v>112.2199046154727</v>
+        <v>112.2199046154726</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>282.5082015186659</v>
       </c>
       <c r="C14" t="n">
-        <v>64.13953294428387</v>
+        <v>270.5195184763477</v>
       </c>
       <c r="D14" t="n">
         <v>261.5008225208757</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>233.7286803944183</v>
       </c>
       <c r="F14" t="n">
         <v>302.4147761787584</v>
@@ -1622,10 +1622,10 @@
         <v>304.0604309302996</v>
       </c>
       <c r="H14" t="n">
-        <v>218.9526409242344</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>52.40591839253196</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.20779845000753</v>
+        <v>71.20779845000756</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>113.2614276560308</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>270.6149364695486</v>
       </c>
       <c r="Y14" t="n">
-        <v>282.0115342657473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>19.69242577307097</v>
+        <v>127.287328377244</v>
       </c>
       <c r="H15" t="n">
         <v>97.4522582974143</v>
       </c>
       <c r="I15" t="n">
-        <v>57.64877769093663</v>
+        <v>62.40017382666982</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.63195820980194</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>148.4131160220025</v>
+        <v>85.69877549189776</v>
       </c>
       <c r="T15" t="n">
         <v>186.1779818082701</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.12491239336302</v>
+        <v>74.12491239336303</v>
       </c>
       <c r="C16" t="n">
-        <v>60.3249072387635</v>
+        <v>60.32490723876352</v>
       </c>
       <c r="D16" t="n">
-        <v>43.94627163634189</v>
+        <v>43.9462716363419</v>
       </c>
       <c r="E16" t="n">
-        <v>42.89402149212134</v>
+        <v>42.89402149212135</v>
       </c>
       <c r="F16" t="n">
-        <v>43.36094582030765</v>
+        <v>43.36094582030766</v>
       </c>
       <c r="G16" t="n">
-        <v>59.50663518584933</v>
+        <v>59.50663518584934</v>
       </c>
       <c r="H16" t="n">
-        <v>49.03697014636023</v>
+        <v>49.03697014636024</v>
       </c>
       <c r="I16" t="n">
-        <v>31.28632788547727</v>
+        <v>31.2863278854773</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.63075135107195</v>
+        <v>34.63075135107197</v>
       </c>
       <c r="S16" t="n">
         <v>101.7294114290817</v>
@@ -1844,7 +1844,7 @@
         <v>224.7321082206243</v>
       </c>
       <c r="C17" t="n">
-        <v>212.7434251783061</v>
+        <v>212.743425178306</v>
       </c>
       <c r="D17" t="n">
         <v>203.724729222834</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>13.43170515196593</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>55.48533435798914</v>
+        <v>55.48533435798911</v>
       </c>
       <c r="U17" t="n">
-        <v>86.94247796926078</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>55.89218672089433</v>
+        <v>156.2663698421215</v>
       </c>
       <c r="W17" t="n">
-        <v>193.5385849387604</v>
+        <v>193.5385849387603</v>
       </c>
       <c r="X17" t="n">
-        <v>212.838843171507</v>
+        <v>212.8388431715069</v>
       </c>
       <c r="Y17" t="n">
         <v>224.2354409677057</v>
@@ -1938,10 +1938,10 @@
         <v>127.287328377244</v>
       </c>
       <c r="H18" t="n">
-        <v>47.5061333841775</v>
+        <v>97.4522582974143</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>62.40017382666982</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.63195820980195</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>148.4131160220025</v>
+        <v>85.69877549189776</v>
       </c>
       <c r="T18" t="n">
         <v>186.1779818082701</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.3488190953214</v>
+        <v>16.34881909532137</v>
       </c>
       <c r="C19" t="n">
-        <v>2.548813940721885</v>
+        <v>2.548813940721857</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.730541887807709</v>
+        <v>1.730541887807681</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.95331813104007</v>
+        <v>99.37779052195449</v>
       </c>
       <c r="T19" t="n">
-        <v>120.3494012572784</v>
+        <v>64.92492886636425</v>
       </c>
       <c r="U19" t="n">
         <v>118.9403041214416</v>
       </c>
       <c r="V19" t="n">
-        <v>92.75695549494699</v>
+        <v>92.75695549494696</v>
       </c>
       <c r="W19" t="n">
-        <v>117.9238415655603</v>
+        <v>117.9238415655602</v>
       </c>
       <c r="X19" t="n">
-        <v>63.56894356136337</v>
+        <v>63.56894356136334</v>
       </c>
       <c r="Y19" t="n">
-        <v>54.44381131743106</v>
+        <v>54.44381131743103</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.7321082206242</v>
+        <v>112.3858094807152</v>
       </c>
       <c r="C20" t="n">
-        <v>212.7434251783059</v>
+        <v>212.743425178306</v>
       </c>
       <c r="D20" t="n">
-        <v>203.7247292228339</v>
+        <v>203.724729222834</v>
       </c>
       <c r="E20" t="n">
-        <v>225.4668667927394</v>
+        <v>225.4668667927396</v>
       </c>
       <c r="F20" t="n">
-        <v>244.6386828807166</v>
+        <v>244.6386828807167</v>
       </c>
       <c r="G20" t="n">
-        <v>246.2843376322579</v>
+        <v>246.284337632258</v>
       </c>
       <c r="H20" t="n">
-        <v>117.7472883962409</v>
+        <v>161.1765476261928</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>13.4317051519659</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>55.48533435798911</v>
       </c>
       <c r="U20" t="n">
-        <v>86.94247796926064</v>
+        <v>86.94247796926075</v>
       </c>
       <c r="V20" t="n">
-        <v>168.2384854608033</v>
+        <v>168.2384854608034</v>
       </c>
       <c r="W20" t="n">
-        <v>193.5385849387602</v>
+        <v>193.5385849387603</v>
       </c>
       <c r="X20" t="n">
-        <v>212.8388431715068</v>
+        <v>212.8388431715069</v>
       </c>
       <c r="Y20" t="n">
-        <v>224.2354409677056</v>
+        <v>224.2354409677057</v>
       </c>
     </row>
     <row r="21">
@@ -2172,7 +2172,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>14.94102963733777</v>
+        <v>127.287328377244</v>
       </c>
       <c r="H21" t="n">
         <v>97.4522582974143</v>
@@ -2211,7 +2211,7 @@
         <v>148.4131160220025</v>
       </c>
       <c r="T21" t="n">
-        <v>186.1779818082701</v>
+        <v>73.83168306836303</v>
       </c>
       <c r="U21" t="n">
         <v>216.2997203592713</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.34881909532126</v>
+        <v>16.34881909532137</v>
       </c>
       <c r="C22" t="n">
-        <v>2.548813940721743</v>
+        <v>2.548813940721857</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.730541887807567</v>
+        <v>1.730541887807681</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>55.4244723909144</v>
       </c>
       <c r="S22" t="n">
-        <v>43.95331813103993</v>
+        <v>43.95331813104004</v>
       </c>
       <c r="T22" t="n">
-        <v>64.92492886636414</v>
+        <v>64.92492886636425</v>
       </c>
       <c r="U22" t="n">
-        <v>174.3647765123571</v>
+        <v>118.9403041214416</v>
       </c>
       <c r="V22" t="n">
-        <v>92.75695549494685</v>
+        <v>92.75695549494696</v>
       </c>
       <c r="W22" t="n">
-        <v>117.9238415655601</v>
+        <v>117.9238415655602</v>
       </c>
       <c r="X22" t="n">
-        <v>63.56894356136323</v>
+        <v>63.56894356136334</v>
       </c>
       <c r="Y22" t="n">
-        <v>54.44381131743091</v>
+        <v>54.44381131743103</v>
       </c>
     </row>
     <row r="23">
@@ -2318,13 +2318,13 @@
         <v>224.7321082206242</v>
       </c>
       <c r="C23" t="n">
-        <v>212.7434251783059</v>
+        <v>212.743425178306</v>
       </c>
       <c r="D23" t="n">
         <v>203.7247292228339</v>
       </c>
       <c r="E23" t="n">
-        <v>225.4668667927394</v>
+        <v>225.4668667927395</v>
       </c>
       <c r="F23" t="n">
         <v>244.6386828807166</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>13.43170515196576</v>
+        <v>13.43170515196582</v>
       </c>
       <c r="T23" t="n">
-        <v>55.48533435798897</v>
+        <v>55.48533435798903</v>
       </c>
       <c r="U23" t="n">
-        <v>86.94247796926061</v>
+        <v>86.94247796926066</v>
       </c>
       <c r="V23" t="n">
         <v>168.2384854608033</v>
@@ -2381,7 +2381,7 @@
         <v>193.5385849387602</v>
       </c>
       <c r="X23" t="n">
-        <v>212.8388431715068</v>
+        <v>212.8388431715069</v>
       </c>
       <c r="Y23" t="n">
         <v>224.2354409677056</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.34881909532123</v>
+        <v>16.34881909532129</v>
       </c>
       <c r="C25" t="n">
-        <v>2.548813940721715</v>
+        <v>2.548813940721772</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.730541887807538</v>
+        <v>1.730541887807595</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>28.07561373380043</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>27.34885865711568</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.9533181310399</v>
+        <v>99.3777905219554</v>
       </c>
       <c r="T25" t="n">
-        <v>64.92492886636411</v>
+        <v>64.92492886636417</v>
       </c>
       <c r="U25" t="n">
-        <v>118.9403041214414</v>
+        <v>118.9403041214415</v>
       </c>
       <c r="V25" t="n">
-        <v>92.75695549494682</v>
+        <v>92.75695549494688</v>
       </c>
       <c r="W25" t="n">
         <v>117.9238415655601</v>
       </c>
       <c r="X25" t="n">
-        <v>63.5689435613632</v>
+        <v>63.56894356136326</v>
       </c>
       <c r="Y25" t="n">
-        <v>54.44381131743089</v>
+        <v>54.44381131743094</v>
       </c>
     </row>
     <row r="26">
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>28.84108152936971</v>
+        <v>28.84108152937007</v>
       </c>
       <c r="T26" t="n">
-        <v>113.2614276560308</v>
+        <v>113.2614276560307</v>
       </c>
       <c r="U26" t="n">
         <v>144.7185712673024</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.12491239336303</v>
+        <v>74.124912393363</v>
       </c>
       <c r="C28" t="n">
-        <v>60.32490723876352</v>
+        <v>60.32490723876349</v>
       </c>
       <c r="D28" t="n">
-        <v>43.9462716363419</v>
+        <v>43.94627163634188</v>
       </c>
       <c r="E28" t="n">
-        <v>42.89402149212135</v>
+        <v>42.89402149212133</v>
       </c>
       <c r="F28" t="n">
-        <v>43.36094582030766</v>
+        <v>43.36094582030763</v>
       </c>
       <c r="G28" t="n">
-        <v>59.50663518584934</v>
+        <v>59.50663518584931</v>
       </c>
       <c r="H28" t="n">
-        <v>49.03697014636025</v>
+        <v>49.03697014636022</v>
       </c>
       <c r="I28" t="n">
-        <v>31.2863278854773</v>
+        <v>31.28632788547727</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.63075135107197</v>
+        <v>34.63075135107194</v>
       </c>
       <c r="S28" t="n">
         <v>101.7294114290817</v>
@@ -2843,13 +2843,13 @@
         <v>71.20779845000756</v>
       </c>
       <c r="T29" t="n">
-        <v>113.2614276560308</v>
+        <v>113.2614276560307</v>
       </c>
       <c r="U29" t="n">
         <v>144.7185712673024</v>
       </c>
       <c r="V29" t="n">
-        <v>226.0145787588451</v>
+        <v>131.241943445676</v>
       </c>
       <c r="W29" t="n">
         <v>251.314678236802</v>
@@ -2858,7 +2858,7 @@
         <v>270.6149364695486</v>
       </c>
       <c r="Y29" t="n">
-        <v>187.2388989525779</v>
+        <v>282.0115342657473</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>97.4522582974143</v>
       </c>
       <c r="I30" t="n">
-        <v>62.40017382666982</v>
+        <v>62.40017382666983</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.63195820980195</v>
+        <v>49.63195820980197</v>
       </c>
       <c r="S30" t="n">
         <v>148.4131160220025</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.12491239336303</v>
+        <v>74.12491239336302</v>
       </c>
       <c r="C31" t="n">
-        <v>60.32490723876352</v>
+        <v>60.3249072387635</v>
       </c>
       <c r="D31" t="n">
-        <v>43.9462716363419</v>
+        <v>43.94627163634189</v>
       </c>
       <c r="E31" t="n">
-        <v>42.89402149212135</v>
+        <v>42.89402149212134</v>
       </c>
       <c r="F31" t="n">
-        <v>43.36094582030766</v>
+        <v>43.36094582030765</v>
       </c>
       <c r="G31" t="n">
-        <v>59.50663518584933</v>
+        <v>59.50663518584932</v>
       </c>
       <c r="H31" t="n">
-        <v>49.03697014636024</v>
+        <v>49.03697014636023</v>
       </c>
       <c r="I31" t="n">
-        <v>31.2863278854773</v>
+        <v>31.28632788547728</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.63075135107197</v>
+        <v>34.63075135107196</v>
       </c>
       <c r="S31" t="n">
         <v>101.7294114290817</v>
@@ -3029,13 +3029,13 @@
         <v>224.7321082206241</v>
       </c>
       <c r="C32" t="n">
-        <v>212.7434251783058</v>
+        <v>212.7434251783059</v>
       </c>
       <c r="D32" t="n">
         <v>203.7247292228338</v>
       </c>
       <c r="E32" t="n">
-        <v>225.4668667927393</v>
+        <v>225.4668667927394</v>
       </c>
       <c r="F32" t="n">
         <v>244.6386828807165</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.43170515196567</v>
+        <v>13.43170515196573</v>
       </c>
       <c r="T32" t="n">
-        <v>55.48533435798888</v>
+        <v>55.48533435798893</v>
       </c>
       <c r="U32" t="n">
-        <v>86.94247796926052</v>
+        <v>86.94247796926058</v>
       </c>
       <c r="V32" t="n">
         <v>168.2384854608032</v>
       </c>
       <c r="W32" t="n">
-        <v>193.5385849387601</v>
+        <v>193.5385849387602</v>
       </c>
       <c r="X32" t="n">
-        <v>212.8388431715067</v>
+        <v>212.8388431715068</v>
       </c>
       <c r="Y32" t="n">
         <v>224.2354409677055</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.34881909532115</v>
+        <v>16.3488190953212</v>
       </c>
       <c r="C34" t="n">
-        <v>2.548813940721629</v>
+        <v>2.548813940721686</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.730541887807453</v>
+        <v>1.73054188780751</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>43.95331813103981</v>
+        <v>43.95331813103987</v>
       </c>
       <c r="T34" t="n">
-        <v>120.349401257281</v>
+        <v>64.92492886636408</v>
       </c>
       <c r="U34" t="n">
-        <v>118.9403041214414</v>
+        <v>174.3647765123578</v>
       </c>
       <c r="V34" t="n">
-        <v>92.75695549494674</v>
+        <v>92.75695549494679</v>
       </c>
       <c r="W34" t="n">
-        <v>117.92384156556</v>
+        <v>117.9238415655601</v>
       </c>
       <c r="X34" t="n">
-        <v>63.56894356136311</v>
+        <v>63.56894356136317</v>
       </c>
       <c r="Y34" t="n">
-        <v>54.4438113174308</v>
+        <v>54.44381131743086</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>224.7321082206242</v>
+        <v>224.7321082206241</v>
       </c>
       <c r="C35" t="n">
-        <v>212.743425178306</v>
+        <v>212.7434251783059</v>
       </c>
       <c r="D35" t="n">
-        <v>203.7247292228339</v>
+        <v>203.7247292228338</v>
       </c>
       <c r="E35" t="n">
-        <v>225.4668667927395</v>
+        <v>225.4668667927394</v>
       </c>
       <c r="F35" t="n">
-        <v>244.6386828807166</v>
+        <v>244.6386828807165</v>
       </c>
       <c r="G35" t="n">
-        <v>246.2843376322579</v>
+        <v>246.2843376322578</v>
       </c>
       <c r="H35" t="n">
-        <v>161.1765476261927</v>
+        <v>161.1765476261926</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>13.43170515196582</v>
+        <v>13.43170515196573</v>
       </c>
       <c r="T35" t="n">
-        <v>55.48533435798903</v>
+        <v>55.48533435798894</v>
       </c>
       <c r="U35" t="n">
-        <v>86.94247796926066</v>
+        <v>86.94247796926058</v>
       </c>
       <c r="V35" t="n">
-        <v>168.2384854608033</v>
+        <v>168.2384854608032</v>
       </c>
       <c r="W35" t="n">
         <v>193.5385849387602</v>
       </c>
       <c r="X35" t="n">
-        <v>212.8388431715069</v>
+        <v>212.8388431715068</v>
       </c>
       <c r="Y35" t="n">
-        <v>224.2354409677056</v>
+        <v>224.2354409677055</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>97.4522582974143</v>
       </c>
       <c r="I36" t="n">
-        <v>62.40017382667111</v>
+        <v>62.40017382666982</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.34881909532129</v>
+        <v>16.3488190953212</v>
       </c>
       <c r="C37" t="n">
-        <v>2.548813940721772</v>
+        <v>2.548813940721686</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>55.42447239091637</v>
       </c>
       <c r="G37" t="n">
-        <v>1.730541887807595</v>
+        <v>1.73054188780751</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>43.95331813103996</v>
+        <v>43.95331813103987</v>
       </c>
       <c r="T37" t="n">
-        <v>64.92492886636417</v>
+        <v>64.92492886636408</v>
       </c>
       <c r="U37" t="n">
-        <v>118.9403041214415</v>
+        <v>118.9403041214414</v>
       </c>
       <c r="V37" t="n">
-        <v>92.75695549494688</v>
+        <v>92.75695549494679</v>
       </c>
       <c r="W37" t="n">
         <v>117.9238415655601</v>
       </c>
       <c r="X37" t="n">
-        <v>118.9934159522787</v>
+        <v>63.56894356136317</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.44381131743094</v>
+        <v>54.44381131743086</v>
       </c>
     </row>
     <row r="38">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.63195820980278</v>
+        <v>49.63195820980195</v>
       </c>
       <c r="S39" t="n">
         <v>148.4131160220025</v>
@@ -3636,7 +3636,7 @@
         <v>186.1779818082701</v>
       </c>
       <c r="U39" t="n">
-        <v>216.2997203592713</v>
+        <v>216.2997203592724</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3676,7 +3676,7 @@
         <v>1.730541887807595</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>55.4244723909154</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>99.3777905219554</v>
+        <v>43.95331813103996</v>
       </c>
       <c r="T40" t="n">
         <v>64.92492886636417</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>230.9291348299249</v>
+        <v>230.9291348299248</v>
       </c>
       <c r="C41" t="n">
-        <v>218.9404517876067</v>
+        <v>218.9404517876066</v>
       </c>
       <c r="D41" t="n">
-        <v>209.9217558321347</v>
+        <v>209.9217558321346</v>
       </c>
       <c r="E41" t="n">
-        <v>231.6638934020402</v>
+        <v>231.6638934020401</v>
       </c>
       <c r="F41" t="n">
-        <v>163.2504852560162</v>
+        <v>163.2504852560172</v>
       </c>
       <c r="G41" t="n">
-        <v>252.4813642415587</v>
+        <v>252.4813642415585</v>
       </c>
       <c r="H41" t="n">
-        <v>167.3735742354934</v>
+        <v>167.3735742354933</v>
       </c>
       <c r="I41" t="n">
-        <v>0.826851703790993</v>
+        <v>0.8268517037908794</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.62873176126655</v>
+        <v>19.62873176126644</v>
       </c>
       <c r="T41" t="n">
-        <v>61.68236096728976</v>
+        <v>61.68236096728965</v>
       </c>
       <c r="U41" t="n">
-        <v>93.1395045785614</v>
+        <v>93.13950457856129</v>
       </c>
       <c r="V41" t="n">
-        <v>174.4355120701041</v>
+        <v>174.435512070104</v>
       </c>
       <c r="W41" t="n">
-        <v>199.735611548061</v>
+        <v>199.7356115480609</v>
       </c>
       <c r="X41" t="n">
-        <v>219.0358697808076</v>
+        <v>219.0358697808075</v>
       </c>
       <c r="Y41" t="n">
-        <v>230.4324675770063</v>
+        <v>230.4324675770062</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>97.4522582974143</v>
       </c>
       <c r="I42" t="n">
-        <v>62.40017382667111</v>
+        <v>62.40017382666982</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>22.54584570462202</v>
+        <v>22.54584570462191</v>
       </c>
       <c r="C43" t="n">
-        <v>8.745840550022507</v>
+        <v>8.745840550022393</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>7.92756849710833</v>
+        <v>7.927568497108217</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>50.15034474034069</v>
+        <v>50.15034474034058</v>
       </c>
       <c r="T43" t="n">
-        <v>71.1219554756649</v>
+        <v>71.12195547566479</v>
       </c>
       <c r="U43" t="n">
-        <v>125.1373307307422</v>
+        <v>125.1373307307421</v>
       </c>
       <c r="V43" t="n">
-        <v>98.95398210424761</v>
+        <v>98.9539821042475</v>
       </c>
       <c r="W43" t="n">
-        <v>124.1208681748609</v>
+        <v>124.1208681748608</v>
       </c>
       <c r="X43" t="n">
-        <v>69.76597017066399</v>
+        <v>69.76597017066388</v>
       </c>
       <c r="Y43" t="n">
-        <v>60.64083792673168</v>
+        <v>60.64083792673156</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>230.9291348299249</v>
+        <v>230.9291348299248</v>
       </c>
       <c r="C44" t="n">
-        <v>218.9404517876067</v>
+        <v>218.9404517876066</v>
       </c>
       <c r="D44" t="n">
-        <v>209.9217558321347</v>
+        <v>209.9217558321346</v>
       </c>
       <c r="E44" t="n">
-        <v>231.6638934020402</v>
+        <v>231.6638934020401</v>
       </c>
       <c r="F44" t="n">
-        <v>250.8357094900174</v>
+        <v>250.8357094900173</v>
       </c>
       <c r="G44" t="n">
-        <v>252.4813642415586</v>
+        <v>252.4813642415585</v>
       </c>
       <c r="H44" t="n">
-        <v>99.41708176275816</v>
+        <v>79.78835000149364</v>
       </c>
       <c r="I44" t="n">
-        <v>0.826851703790993</v>
+        <v>0.8268517037908794</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>19.62873176126644</v>
       </c>
       <c r="T44" t="n">
-        <v>61.68236096728975</v>
+        <v>61.68236096728964</v>
       </c>
       <c r="U44" t="n">
-        <v>93.1395045785614</v>
+        <v>93.13950457856129</v>
       </c>
       <c r="V44" t="n">
-        <v>174.4355120701041</v>
+        <v>174.435512070104</v>
       </c>
       <c r="W44" t="n">
-        <v>199.735611548061</v>
+        <v>199.7356115480609</v>
       </c>
       <c r="X44" t="n">
-        <v>219.0358697808076</v>
+        <v>219.0358697808075</v>
       </c>
       <c r="Y44" t="n">
-        <v>230.4324675770063</v>
+        <v>230.4324675770062</v>
       </c>
     </row>
     <row r="45">
@@ -4107,7 +4107,7 @@
         <v>148.4131160220025</v>
       </c>
       <c r="T45" t="n">
-        <v>186.1779818082701</v>
+        <v>186.1779818082703</v>
       </c>
       <c r="U45" t="n">
         <v>216.2997203592713</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22.54584570462202</v>
+        <v>22.54584570462191</v>
       </c>
       <c r="C46" t="n">
-        <v>8.745840550022507</v>
+        <v>8.745840550022393</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>7.92756849710833</v>
+        <v>7.927568497108217</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>50.15034474034069</v>
+        <v>50.15034474034058</v>
       </c>
       <c r="T46" t="n">
-        <v>71.1219554756649</v>
+        <v>71.12195547566479</v>
       </c>
       <c r="U46" t="n">
-        <v>125.1373307307422</v>
+        <v>125.1373307307421</v>
       </c>
       <c r="V46" t="n">
-        <v>98.95398210424761</v>
+        <v>98.9539821042475</v>
       </c>
       <c r="W46" t="n">
-        <v>124.1208681748609</v>
+        <v>124.1208681748608</v>
       </c>
       <c r="X46" t="n">
-        <v>69.76597017066399</v>
+        <v>69.76597017066388</v>
       </c>
       <c r="Y46" t="n">
-        <v>60.64083792673168</v>
+        <v>60.64083792673156</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158.0695419239593</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="C2" t="n">
-        <v>158.0695419239593</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="D2" t="n">
-        <v>158.0695419239593</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="E2" t="n">
-        <v>158.0695419239593</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="F2" t="n">
-        <v>147.9587552745337</v>
+        <v>40.97810069336293</v>
       </c>
       <c r="G2" t="n">
         <v>10.85835194379454</v>
@@ -4328,19 +4328,19 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J2" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K2" t="n">
-        <v>10.85835194379454</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="L2" t="n">
-        <v>139.8012812763547</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M2" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="N2" t="n">
-        <v>408.5454918852696</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="O2" t="n">
         <v>542.9175971897271</v>
@@ -4355,19 +4355,19 @@
         <v>452.2793106855804</v>
       </c>
       <c r="S2" t="n">
+        <v>452.2793106855804</v>
+      </c>
+      <c r="T2" t="n">
+        <v>452.2793106855804</v>
+      </c>
+      <c r="U2" t="n">
+        <v>452.2793106855804</v>
+      </c>
+      <c r="V2" t="n">
+        <v>452.2793106855804</v>
+      </c>
+      <c r="W2" t="n">
         <v>315.1789073548413</v>
-      </c>
-      <c r="T2" t="n">
-        <v>178.0785040241021</v>
-      </c>
-      <c r="U2" t="n">
-        <v>178.0785040241021</v>
-      </c>
-      <c r="V2" t="n">
-        <v>178.0785040241021</v>
-      </c>
-      <c r="W2" t="n">
-        <v>178.0785040241021</v>
       </c>
       <c r="X2" t="n">
         <v>178.0785040241021</v>
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>405.8171938589879</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="C3" t="n">
-        <v>276.6872552512491</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="D3" t="n">
-        <v>139.58685192051</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="E3" t="n">
-        <v>139.58685192051</v>
+        <v>442.6007927338766</v>
       </c>
       <c r="F3" t="n">
-        <v>139.58685192051</v>
+        <v>307.9069946837509</v>
       </c>
       <c r="G3" t="n">
-        <v>10.85835194379454</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="H3" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="I3" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J3" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K3" t="n">
-        <v>205.4846037813581</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L3" t="n">
-        <v>339.8567090858156</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M3" t="n">
-        <v>339.8567090858156</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N3" t="n">
-        <v>339.8567090858156</v>
+        <v>145.230457248252</v>
       </c>
       <c r="O3" t="n">
-        <v>339.8567090858156</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="P3" t="n">
-        <v>474.2288143902731</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="Q3" t="n">
         <v>542.9175971897271</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>482.2168005218393</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="C4" t="n">
-        <v>482.2168005218393</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="D4" t="n">
-        <v>482.2168005218393</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="E4" t="n">
-        <v>482.2168005218393</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="F4" t="n">
-        <v>345.1163971911002</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="G4" t="n">
-        <v>208.015993860361</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="H4" t="n">
-        <v>70.91559052962182</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="I4" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J4" t="n">
         <v>10.85835194379454</v>
@@ -4507,31 +4507,31 @@
         <v>542.9175971897271</v>
       </c>
       <c r="Q4" t="n">
-        <v>504.3802558434161</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R4" t="n">
-        <v>504.3802558434161</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="S4" t="n">
-        <v>504.3802558434161</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="T4" t="n">
-        <v>504.3802558434161</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="U4" t="n">
-        <v>504.3802558434161</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V4" t="n">
-        <v>504.3802558434161</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W4" t="n">
-        <v>504.3802558434161</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="X4" t="n">
-        <v>482.2168005218393</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="Y4" t="n">
-        <v>482.2168005218393</v>
+        <v>405.8171938589879</v>
       </c>
     </row>
     <row r="5">
@@ -4550,13 +4550,13 @@
         <v>178.0785040241021</v>
       </c>
       <c r="E5" t="n">
+        <v>178.0785040241021</v>
+      </c>
+      <c r="F5" t="n">
         <v>40.97810069336293</v>
       </c>
-      <c r="F5" t="n">
-        <v>30.86731404393732</v>
-      </c>
       <c r="G5" t="n">
-        <v>18.80373153852935</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H5" t="n">
         <v>10.85835194379454</v>
@@ -4565,19 +4565,19 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J5" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K5" t="n">
-        <v>10.85835194379454</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="L5" t="n">
-        <v>145.230457248252</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="M5" t="n">
-        <v>279.6025625527094</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="N5" t="n">
-        <v>413.9746678571669</v>
+        <v>485.9732121299726</v>
       </c>
       <c r="O5" t="n">
         <v>542.9175971897271</v>
@@ -4592,13 +4592,13 @@
         <v>452.2793106855804</v>
       </c>
       <c r="S5" t="n">
-        <v>315.1789073548413</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="T5" t="n">
-        <v>315.1789073548413</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="U5" t="n">
-        <v>315.1789073548413</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="V5" t="n">
         <v>315.1789073548413</v>
@@ -4610,7 +4610,7 @@
         <v>315.1789073548413</v>
       </c>
       <c r="Y5" t="n">
-        <v>178.0785040241021</v>
+        <v>315.1789073548413</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="C6" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D6" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E6" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F6" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G6" t="n">
-        <v>139.9882905515334</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H6" t="n">
-        <v>40.05043309823141</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I6" t="n">
         <v>10.85835194379454</v>
@@ -4650,19 +4650,19 @@
         <v>205.4846037813581</v>
       </c>
       <c r="L6" t="n">
-        <v>339.8567090858156</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M6" t="n">
-        <v>339.8567090858156</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="N6" t="n">
-        <v>339.8567090858156</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="O6" t="n">
-        <v>474.2288143902731</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P6" t="n">
-        <v>474.2288143902731</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q6" t="n">
         <v>542.9175971897271</v>
@@ -4689,7 +4689,7 @@
         <v>542.9175971897271</v>
       </c>
       <c r="Y6" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>230.1794491819378</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="C7" t="n">
-        <v>230.1794491819378</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="D7" t="n">
-        <v>147.9587552745337</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="E7" t="n">
-        <v>147.9587552745337</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="F7" t="n">
         <v>10.85835194379454</v>
@@ -4723,10 +4723,10 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J7" t="n">
-        <v>10.85835194379457</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K7" t="n">
-        <v>44.46253968843799</v>
+        <v>44.46253968843796</v>
       </c>
       <c r="L7" t="n">
         <v>145.0696190886975</v>
@@ -4735,40 +4735,40 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N7" t="n">
-        <v>381.4854669658996</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O7" t="n">
-        <v>479.9491134615893</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P7" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q7" t="n">
-        <v>504.3802558434161</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R7" t="n">
-        <v>504.3802558434161</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S7" t="n">
-        <v>504.3802558434161</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T7" t="n">
-        <v>504.3802558434161</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U7" t="n">
-        <v>504.3802558434161</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V7" t="n">
-        <v>367.2798525126769</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W7" t="n">
-        <v>367.2798525126769</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X7" t="n">
-        <v>367.2798525126769</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y7" t="n">
-        <v>367.2798525126769</v>
+        <v>405.8171938589878</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1078.780472565263</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="C8" t="n">
-        <v>1078.780472565263</v>
+        <v>1464.393710106763</v>
       </c>
       <c r="D8" t="n">
-        <v>705.9565077924865</v>
+        <v>1464.393710106763</v>
       </c>
       <c r="E8" t="n">
-        <v>705.9565077924865</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="F8" t="n">
-        <v>630.9454414382152</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>1823.345543186168</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V8" t="n">
-        <v>1823.345543186168</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="W8" t="n">
-        <v>1460.81061304377</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="X8" t="n">
-        <v>1078.780472565263</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="Y8" t="n">
-        <v>1078.780472565263</v>
+        <v>1846.327468773955</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>102.2784026343054</v>
       </c>
       <c r="L9" t="n">
-        <v>468.100247804421</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M9" t="n">
-        <v>953.1336013146474</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
-        <v>1464.39924743777</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1856.59919822192</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4908,13 +4908,13 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1948.413318072701</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T9" t="n">
-        <v>1759.728214238687</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U9" t="n">
-        <v>1759.728214238687</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V9" t="n">
         <v>1712.510642623821</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>505.8865705348295</v>
+        <v>363.6492398782001</v>
       </c>
       <c r="C10" t="n">
-        <v>505.8865705348295</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="D10" t="n">
-        <v>505.8865705348295</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="E10" t="n">
-        <v>353.8775562961483</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>201.3969013219254</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>201.3969013219254</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
         <v>42.02425610119923</v>
@@ -4996,16 +4996,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>505.8865705348295</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>505.8865705348295</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>505.8865705348295</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>505.8865705348295</v>
+        <v>547.2046085625799</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1451.740392979277</v>
+        <v>1480.310713060885</v>
       </c>
       <c r="C11" t="n">
-        <v>1178.488354114279</v>
+        <v>1480.310713060885</v>
       </c>
       <c r="D11" t="n">
-        <v>914.3461091436973</v>
+        <v>1221.477857558141</v>
       </c>
       <c r="E11" t="n">
-        <v>628.242109051999</v>
+        <v>935.3738574664428</v>
       </c>
       <c r="F11" t="n">
-        <v>322.7726381643643</v>
+        <v>629.9043865788082</v>
       </c>
       <c r="G11" t="n">
-        <v>322.7726381643643</v>
+        <v>322.7726381643641</v>
       </c>
       <c r="H11" t="n">
         <v>101.6083544025113</v>
       </c>
       <c r="I11" t="n">
-        <v>48.67308329894363</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="J11" t="n">
-        <v>144.8383257495857</v>
+        <v>144.8383257495859</v>
       </c>
       <c r="K11" t="n">
-        <v>421.1983137927069</v>
+        <v>421.1983137927068</v>
       </c>
       <c r="L11" t="n">
         <v>814.0173232811223</v>
       </c>
       <c r="M11" t="n">
-        <v>1257.253817817915</v>
+        <v>1257.253817817914</v>
       </c>
       <c r="N11" t="n">
         <v>1686.391513831562</v>
       </c>
       <c r="O11" t="n">
-        <v>2039.371081943165</v>
+        <v>2039.371081943164</v>
       </c>
       <c r="P11" t="n">
-        <v>2308.473516994433</v>
+        <v>2308.473516994432</v>
       </c>
       <c r="Q11" t="n">
         <v>2433.654164947181</v>
@@ -5066,25 +5066,25 @@
         <v>2433.654164947181</v>
       </c>
       <c r="S11" t="n">
-        <v>2361.72709580576</v>
+        <v>2361.727095805759</v>
       </c>
       <c r="T11" t="n">
-        <v>2361.72709580576</v>
+        <v>2247.32161332492</v>
       </c>
       <c r="U11" t="n">
-        <v>2361.72709580576</v>
+        <v>2247.32161332492</v>
       </c>
       <c r="V11" t="n">
-        <v>2133.429541503896</v>
+        <v>2019.024059023056</v>
       </c>
       <c r="W11" t="n">
-        <v>2133.429541503896</v>
+        <v>1765.170848682852</v>
       </c>
       <c r="X11" t="n">
-        <v>2021.962348317068</v>
+        <v>1765.170848682852</v>
       </c>
       <c r="Y11" t="n">
-        <v>1737.102212695101</v>
+        <v>1480.310713060885</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>857.9468845707871</v>
+        <v>807.4962533452945</v>
       </c>
       <c r="C12" t="n">
-        <v>696.2432118117418</v>
+        <v>645.7925805862492</v>
       </c>
       <c r="D12" t="n">
-        <v>557.4045748019539</v>
+        <v>506.9539435764613</v>
       </c>
       <c r="E12" t="n">
-        <v>410.3765648588251</v>
+        <v>359.9259336333325</v>
       </c>
       <c r="F12" t="n">
-        <v>275.6827668086995</v>
+        <v>225.2321355832068</v>
       </c>
       <c r="G12" t="n">
-        <v>147.1097078417864</v>
+        <v>96.65907661629373</v>
       </c>
       <c r="H12" t="n">
-        <v>48.67308329894363</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="I12" t="n">
-        <v>48.67308329894363</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="J12" t="n">
-        <v>48.67308329894363</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="K12" t="n">
         <v>302.7644538937809</v>
       </c>
       <c r="L12" t="n">
-        <v>701.6651348409907</v>
+        <v>701.6651348409906</v>
       </c>
       <c r="M12" t="n">
-        <v>945.9117214194689</v>
+        <v>1225.299929475199</v>
       </c>
       <c r="N12" t="n">
-        <v>1496.800473950952</v>
+        <v>1496.800473950951</v>
       </c>
       <c r="O12" t="n">
-        <v>1925.247826096582</v>
+        <v>1925.247826096581</v>
       </c>
       <c r="P12" t="n">
-        <v>2256.435480592219</v>
+        <v>2256.435480592218</v>
       </c>
       <c r="Q12" t="n">
         <v>2433.654164947181</v>
@@ -5145,25 +5145,25 @@
         <v>2383.520873826169</v>
       </c>
       <c r="S12" t="n">
-        <v>2233.608635420106</v>
+        <v>2233.608635420105</v>
       </c>
       <c r="T12" t="n">
-        <v>2045.550067937005</v>
+        <v>2045.550067937004</v>
       </c>
       <c r="U12" t="n">
-        <v>1877.516133143031</v>
+        <v>1827.065501917538</v>
       </c>
       <c r="V12" t="n">
-        <v>1649.120510591365</v>
+        <v>1598.669879365872</v>
       </c>
       <c r="W12" t="n">
-        <v>1407.804641824674</v>
+        <v>1357.354010599182</v>
       </c>
       <c r="X12" t="n">
-        <v>1209.887653702469</v>
+        <v>1159.437022476977</v>
       </c>
       <c r="Y12" t="n">
-        <v>1017.366327352048</v>
+        <v>966.9156961265554</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>382.3660927991672</v>
+        <v>382.3660927991666</v>
       </c>
       <c r="C13" t="n">
-        <v>321.4318430630423</v>
+        <v>321.4318430630418</v>
       </c>
       <c r="D13" t="n">
-        <v>277.041669693</v>
+        <v>277.0416696929995</v>
       </c>
       <c r="E13" t="n">
-        <v>233.7143752565138</v>
+        <v>233.7143752565133</v>
       </c>
       <c r="F13" t="n">
-        <v>189.9154400844859</v>
+        <v>189.9154400844853</v>
       </c>
       <c r="G13" t="n">
-        <v>129.8077277755472</v>
+        <v>129.8077277755471</v>
       </c>
       <c r="H13" t="n">
-        <v>80.27543469841562</v>
+        <v>80.27543469841561</v>
       </c>
       <c r="I13" t="n">
-        <v>48.67308329894363</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="J13" t="n">
         <v>105.3599691520461</v>
       </c>
       <c r="K13" t="n">
-        <v>260.3222266596454</v>
+        <v>260.3222266596453</v>
       </c>
       <c r="L13" t="n">
-        <v>486.4372194257217</v>
+        <v>486.4372194257214</v>
       </c>
       <c r="M13" t="n">
-        <v>730.9708747789452</v>
+        <v>730.970874778945</v>
       </c>
       <c r="N13" t="n">
-        <v>975.4573064712428</v>
+        <v>975.4573064712425</v>
       </c>
       <c r="O13" t="n">
         <v>1198.493003449731</v>
@@ -5230,19 +5230,19 @@
         <v>1201.193602843929</v>
       </c>
       <c r="U13" t="n">
-        <v>1022.692191309098</v>
+        <v>1022.692191309097</v>
       </c>
       <c r="V13" t="n">
-        <v>870.638606669715</v>
+        <v>870.6386066697144</v>
       </c>
       <c r="W13" t="n">
-        <v>693.1639249893092</v>
+        <v>693.1639249893086</v>
       </c>
       <c r="X13" t="n">
-        <v>570.59318068688</v>
+        <v>570.5931806868794</v>
       </c>
       <c r="Y13" t="n">
-        <v>457.239741681352</v>
+        <v>457.2397416813514</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1264.303509451453</v>
+        <v>1434.75816259258</v>
       </c>
       <c r="C14" t="n">
-        <v>1199.516102437025</v>
+        <v>1161.506123727582</v>
       </c>
       <c r="D14" t="n">
-        <v>935.373857466443</v>
+        <v>897.3638787570005</v>
       </c>
       <c r="E14" t="n">
-        <v>935.373857466443</v>
+        <v>661.2743026010223</v>
       </c>
       <c r="F14" t="n">
-        <v>629.9043865788083</v>
+        <v>355.8048317133877</v>
       </c>
       <c r="G14" t="n">
-        <v>322.7726381643643</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="H14" t="n">
-        <v>101.6083544025113</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="I14" t="n">
-        <v>48.67308329894364</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="J14" t="n">
-        <v>144.8383257495859</v>
+        <v>144.8383257495856</v>
       </c>
       <c r="K14" t="n">
-        <v>421.198313792707</v>
+        <v>421.1983137927068</v>
       </c>
       <c r="L14" t="n">
-        <v>814.0173232811225</v>
+        <v>814.0173232811219</v>
       </c>
       <c r="M14" t="n">
-        <v>1257.253817817915</v>
+        <v>1257.253817817914</v>
       </c>
       <c r="N14" t="n">
         <v>1686.391513831562</v>
       </c>
       <c r="O14" t="n">
-        <v>2039.371081943165</v>
+        <v>2039.371081943164</v>
       </c>
       <c r="P14" t="n">
-        <v>2308.473516994433</v>
+        <v>2308.473516994432</v>
       </c>
       <c r="Q14" t="n">
         <v>2433.654164947181</v>
       </c>
       <c r="R14" t="n">
-        <v>2433.654164947182</v>
+        <v>2433.654164947181</v>
       </c>
       <c r="S14" t="n">
-        <v>2361.72709580576</v>
+        <v>2361.727095805759</v>
       </c>
       <c r="T14" t="n">
-        <v>2361.72709580576</v>
+        <v>2247.32161332492</v>
       </c>
       <c r="U14" t="n">
-        <v>2361.72709580576</v>
+        <v>2247.32161332492</v>
       </c>
       <c r="V14" t="n">
-        <v>2361.72709580576</v>
+        <v>2247.32161332492</v>
       </c>
       <c r="W14" t="n">
-        <v>2107.873885465556</v>
+        <v>1993.468402984716</v>
       </c>
       <c r="X14" t="n">
-        <v>1834.525464789244</v>
+        <v>1720.119982308404</v>
       </c>
       <c r="Y14" t="n">
-        <v>1549.665329167277</v>
+        <v>1720.119982308404</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>807.4962533452958</v>
+        <v>920.977363183585</v>
       </c>
       <c r="C15" t="n">
-        <v>645.7925805862506</v>
+        <v>759.2736904245397</v>
       </c>
       <c r="D15" t="n">
-        <v>506.9539435764626</v>
+        <v>620.4350534147518</v>
       </c>
       <c r="E15" t="n">
-        <v>359.9259336333338</v>
+        <v>473.407043471623</v>
       </c>
       <c r="F15" t="n">
-        <v>225.2321355832082</v>
+        <v>338.7132454214973</v>
       </c>
       <c r="G15" t="n">
-        <v>205.34079641849</v>
+        <v>210.1401864545842</v>
       </c>
       <c r="H15" t="n">
-        <v>106.9041718756473</v>
+        <v>111.7035619117414</v>
       </c>
       <c r="I15" t="n">
-        <v>48.67308329894364</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="J15" t="n">
-        <v>123.3207497083125</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="K15" t="n">
-        <v>123.3207497083125</v>
+        <v>200.5949301930118</v>
       </c>
       <c r="L15" t="n">
-        <v>522.2214306555225</v>
+        <v>599.4956111402216</v>
       </c>
       <c r="M15" t="n">
-        <v>1045.856225289731</v>
+        <v>1123.13040577443</v>
       </c>
       <c r="N15" t="n">
-        <v>1596.744977821214</v>
+        <v>1674.019158305913</v>
       </c>
       <c r="O15" t="n">
-        <v>2025.192329966844</v>
+        <v>2102.466510451543</v>
       </c>
       <c r="P15" t="n">
-        <v>2256.43548059222</v>
+        <v>2433.654164947181</v>
       </c>
       <c r="Q15" t="n">
-        <v>2433.654164947182</v>
+        <v>2433.654164947181</v>
       </c>
       <c r="R15" t="n">
-        <v>2383.52087382617</v>
+        <v>2433.654164947181</v>
       </c>
       <c r="S15" t="n">
-        <v>2233.608635420107</v>
+        <v>2347.089745258395</v>
       </c>
       <c r="T15" t="n">
-        <v>2045.550067937005</v>
+        <v>2159.031177775294</v>
       </c>
       <c r="U15" t="n">
-        <v>1827.065501917539</v>
+        <v>1940.546611755828</v>
       </c>
       <c r="V15" t="n">
-        <v>1598.669879365873</v>
+        <v>1712.150989204162</v>
       </c>
       <c r="W15" t="n">
-        <v>1357.354010599183</v>
+        <v>1470.835120437472</v>
       </c>
       <c r="X15" t="n">
-        <v>1159.437022476978</v>
+        <v>1272.918132315267</v>
       </c>
       <c r="Y15" t="n">
-        <v>966.9156961265568</v>
+        <v>1080.396805964846</v>
       </c>
     </row>
     <row r="16">
@@ -5410,55 +5410,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>382.3660927991672</v>
+        <v>382.3660927991667</v>
       </c>
       <c r="C16" t="n">
-        <v>321.4318430630425</v>
+        <v>321.4318430630419</v>
       </c>
       <c r="D16" t="n">
-        <v>277.0416696930002</v>
+        <v>277.0416696929996</v>
       </c>
       <c r="E16" t="n">
-        <v>233.714375256514</v>
+        <v>233.7143752565134</v>
       </c>
       <c r="F16" t="n">
-        <v>189.9154400844861</v>
+        <v>189.9154400844855</v>
       </c>
       <c r="G16" t="n">
-        <v>129.8077277755473</v>
+        <v>129.8077277755468</v>
       </c>
       <c r="H16" t="n">
-        <v>80.27543469841564</v>
+        <v>80.27543469841521</v>
       </c>
       <c r="I16" t="n">
-        <v>48.67308329894364</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="J16" t="n">
-        <v>105.359969152046</v>
+        <v>105.3599691520461</v>
       </c>
       <c r="K16" t="n">
-        <v>260.3222266596453</v>
+        <v>260.3222266596449</v>
       </c>
       <c r="L16" t="n">
-        <v>486.4372194257215</v>
+        <v>486.4372194257211</v>
       </c>
       <c r="M16" t="n">
-        <v>730.9708747789451</v>
+        <v>730.9708747789446</v>
       </c>
       <c r="N16" t="n">
-        <v>975.4573064712426</v>
+        <v>975.457306471242</v>
       </c>
       <c r="O16" t="n">
         <v>1198.493003449731</v>
       </c>
       <c r="P16" t="n">
-        <v>1383.427983926807</v>
+        <v>1383.427983926806</v>
       </c>
       <c r="Q16" t="n">
         <v>1462.871567434393</v>
       </c>
       <c r="R16" t="n">
-        <v>1427.891010514119</v>
+        <v>1427.891010514118</v>
       </c>
       <c r="S16" t="n">
         <v>1325.134029272622</v>
@@ -5467,19 +5467,19 @@
         <v>1201.193602843929</v>
       </c>
       <c r="U16" t="n">
-        <v>1022.692191309098</v>
+        <v>1022.692191309097</v>
       </c>
       <c r="V16" t="n">
-        <v>870.6386066697153</v>
+        <v>870.6386066697148</v>
       </c>
       <c r="W16" t="n">
-        <v>693.1639249893094</v>
+        <v>693.163924989309</v>
       </c>
       <c r="X16" t="n">
-        <v>570.59318068688</v>
+        <v>570.5931806868796</v>
       </c>
       <c r="Y16" t="n">
-        <v>457.2397416813521</v>
+        <v>457.2397416813516</v>
       </c>
     </row>
     <row r="17">
@@ -5492,46 +5492,46 @@
         <v>1355.7787290899</v>
       </c>
       <c r="C17" t="n">
-        <v>1140.886380424944</v>
+        <v>1140.886380424945</v>
       </c>
       <c r="D17" t="n">
-        <v>935.103825654405</v>
+        <v>935.1038256544056</v>
       </c>
       <c r="E17" t="n">
-        <v>707.359515762749</v>
+        <v>707.3595157627494</v>
       </c>
       <c r="F17" t="n">
-        <v>460.2497350751565</v>
+        <v>460.2497350751568</v>
       </c>
       <c r="G17" t="n">
         <v>211.4776768607546</v>
       </c>
       <c r="H17" t="n">
-        <v>48.67308329894363</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="I17" t="n">
-        <v>48.67308329894363</v>
+        <v>48.67308329894324</v>
       </c>
       <c r="J17" t="n">
-        <v>144.8383257495865</v>
+        <v>144.8383257495854</v>
       </c>
       <c r="K17" t="n">
-        <v>421.1983137927076</v>
+        <v>421.1983137927065</v>
       </c>
       <c r="L17" t="n">
-        <v>814.0173232811229</v>
+        <v>814.0173232811219</v>
       </c>
       <c r="M17" t="n">
-        <v>1257.253817817915</v>
+        <v>1257.253817817914</v>
       </c>
       <c r="N17" t="n">
-        <v>1686.391513831563</v>
+        <v>1686.391513831562</v>
       </c>
       <c r="O17" t="n">
-        <v>2039.371081943165</v>
+        <v>2039.371081943164</v>
       </c>
       <c r="P17" t="n">
-        <v>2308.473516994433</v>
+        <v>2308.473516994432</v>
       </c>
       <c r="Q17" t="n">
         <v>2433.654164947181</v>
@@ -5540,13 +5540,13 @@
         <v>2433.654164947181</v>
       </c>
       <c r="S17" t="n">
-        <v>2420.086786005802</v>
+        <v>2433.654164947181</v>
       </c>
       <c r="T17" t="n">
-        <v>2364.040993725004</v>
+        <v>2377.608372666383</v>
       </c>
       <c r="U17" t="n">
-        <v>2276.220308907569</v>
+        <v>2377.608372666383</v>
       </c>
       <c r="V17" t="n">
         <v>2219.763554644039</v>
@@ -5555,10 +5555,10 @@
         <v>2024.270034503877</v>
       </c>
       <c r="X17" t="n">
-        <v>1809.281304027607</v>
+        <v>1809.281304027608</v>
       </c>
       <c r="Y17" t="n">
-        <v>1582.780858605682</v>
+        <v>1582.780858605683</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>807.4962533452954</v>
+        <v>920.977363183585</v>
       </c>
       <c r="C18" t="n">
-        <v>645.7925805862501</v>
+        <v>759.2736904245397</v>
       </c>
       <c r="D18" t="n">
-        <v>506.9539435764622</v>
+        <v>620.4350534147518</v>
       </c>
       <c r="E18" t="n">
-        <v>359.9259336333334</v>
+        <v>473.407043471623</v>
       </c>
       <c r="F18" t="n">
-        <v>225.2321355832077</v>
+        <v>338.7132454214973</v>
       </c>
       <c r="G18" t="n">
-        <v>96.65907661629464</v>
+        <v>210.1401864545842</v>
       </c>
       <c r="H18" t="n">
-        <v>48.67308329894363</v>
+        <v>111.7035619117414</v>
       </c>
       <c r="I18" t="n">
-        <v>48.67308329894363</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="J18" t="n">
         <v>123.3207497083125</v>
@@ -5604,40 +5604,40 @@
         <v>1299.947595884568</v>
       </c>
       <c r="N18" t="n">
-        <v>1496.800473950952</v>
+        <v>1674.019158305913</v>
       </c>
       <c r="O18" t="n">
-        <v>1925.247826096582</v>
+        <v>2102.466510451543</v>
       </c>
       <c r="P18" t="n">
-        <v>2256.435480592219</v>
+        <v>2433.654164947181</v>
       </c>
       <c r="Q18" t="n">
         <v>2433.654164947181</v>
       </c>
       <c r="R18" t="n">
-        <v>2383.520873826169</v>
+        <v>2433.654164947181</v>
       </c>
       <c r="S18" t="n">
-        <v>2233.608635420106</v>
+        <v>2347.089745258395</v>
       </c>
       <c r="T18" t="n">
-        <v>2045.550067937005</v>
+        <v>2159.031177775294</v>
       </c>
       <c r="U18" t="n">
-        <v>1827.065501917539</v>
+        <v>1940.546611755828</v>
       </c>
       <c r="V18" t="n">
-        <v>1598.669879365873</v>
+        <v>1712.150989204162</v>
       </c>
       <c r="W18" t="n">
-        <v>1357.354010599183</v>
+        <v>1470.835120437472</v>
       </c>
       <c r="X18" t="n">
-        <v>1159.437022476978</v>
+        <v>1272.918132315267</v>
       </c>
       <c r="Y18" t="n">
-        <v>966.9156961265563</v>
+        <v>1080.396805964846</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99566494392302</v>
+        <v>52.99566494392294</v>
       </c>
       <c r="C19" t="n">
-        <v>50.42110540784031</v>
+        <v>50.42110540784026</v>
       </c>
       <c r="D19" t="n">
-        <v>50.42110540784031</v>
+        <v>50.42110540784026</v>
       </c>
       <c r="E19" t="n">
-        <v>50.42110540784031</v>
+        <v>50.42110540784026</v>
       </c>
       <c r="F19" t="n">
-        <v>50.42110540784031</v>
+        <v>50.42110540784026</v>
       </c>
       <c r="G19" t="n">
-        <v>48.67308329894363</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="H19" t="n">
-        <v>48.67308329894363</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="I19" t="n">
-        <v>48.67308329894363</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="J19" t="n">
-        <v>48.67308329894363</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="K19" t="n">
-        <v>97.11638722841155</v>
+        <v>97.11638722841153</v>
       </c>
       <c r="L19" t="n">
         <v>216.7124264163565</v>
@@ -5698,25 +5698,25 @@
         <v>687.6273766049162</v>
       </c>
       <c r="S19" t="n">
-        <v>643.2300855634616</v>
+        <v>587.2457700170834</v>
       </c>
       <c r="T19" t="n">
-        <v>521.6650337884329</v>
+        <v>521.6650337884327</v>
       </c>
       <c r="U19" t="n">
-        <v>401.5233124536433</v>
+        <v>401.5233124536431</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8294180143029</v>
+        <v>307.8294180143027</v>
       </c>
       <c r="W19" t="n">
-        <v>188.714426533939</v>
+        <v>188.7144265339389</v>
       </c>
       <c r="X19" t="n">
-        <v>124.5033724315518</v>
+        <v>124.5033724315516</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.50962362606585</v>
+        <v>69.50962362606575</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1311.910790473787</v>
+        <v>1355.7787290899</v>
       </c>
       <c r="C20" t="n">
-        <v>1097.018441808832</v>
+        <v>1140.886380424945</v>
       </c>
       <c r="D20" t="n">
-        <v>891.2358870382924</v>
+        <v>935.1038256544056</v>
       </c>
       <c r="E20" t="n">
-        <v>663.4915771466364</v>
+        <v>707.3595157627494</v>
       </c>
       <c r="F20" t="n">
-        <v>416.3817964590438</v>
+        <v>460.2497350751568</v>
       </c>
       <c r="G20" t="n">
-        <v>167.6097382446415</v>
+        <v>211.4776768607546</v>
       </c>
       <c r="H20" t="n">
-        <v>48.67308329894364</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="I20" t="n">
-        <v>48.67308329894364</v>
+        <v>48.67308329894324</v>
       </c>
       <c r="J20" t="n">
-        <v>144.8383257495858</v>
+        <v>144.8383257495854</v>
       </c>
       <c r="K20" t="n">
-        <v>421.1983137927069</v>
+        <v>421.1983137927065</v>
       </c>
       <c r="L20" t="n">
-        <v>814.0173232811223</v>
+        <v>814.0173232811219</v>
       </c>
       <c r="M20" t="n">
-        <v>1257.253817817915</v>
+        <v>1257.253817817914</v>
       </c>
       <c r="N20" t="n">
         <v>1686.391513831562</v>
       </c>
       <c r="O20" t="n">
-        <v>2039.371081943165</v>
+        <v>2039.371081943164</v>
       </c>
       <c r="P20" t="n">
-        <v>2308.473516994433</v>
+        <v>2308.473516994432</v>
       </c>
       <c r="Q20" t="n">
         <v>2433.654164947181</v>
       </c>
       <c r="R20" t="n">
-        <v>2433.654164947182</v>
+        <v>2433.654164947181</v>
       </c>
       <c r="S20" t="n">
-        <v>2433.654164947182</v>
+        <v>2420.086786005801</v>
       </c>
       <c r="T20" t="n">
-        <v>2433.654164947182</v>
+        <v>2364.040993725004</v>
       </c>
       <c r="U20" t="n">
-        <v>2345.833480129747</v>
+        <v>2276.220308907569</v>
       </c>
       <c r="V20" t="n">
-        <v>2175.895616027925</v>
+        <v>2106.282444805747</v>
       </c>
       <c r="W20" t="n">
-        <v>1980.402095887764</v>
+        <v>1910.788924665585</v>
       </c>
       <c r="X20" t="n">
-        <v>1765.413365411494</v>
+        <v>1695.800194189316</v>
       </c>
       <c r="Y20" t="n">
-        <v>1538.912919989569</v>
+        <v>1469.299748767391</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>807.4962533452958</v>
+        <v>920.977363183585</v>
       </c>
       <c r="C21" t="n">
-        <v>645.7925805862506</v>
+        <v>759.2736904245397</v>
       </c>
       <c r="D21" t="n">
-        <v>506.9539435764626</v>
+        <v>620.4350534147518</v>
       </c>
       <c r="E21" t="n">
-        <v>359.9259336333338</v>
+        <v>473.407043471623</v>
       </c>
       <c r="F21" t="n">
-        <v>225.2321355832082</v>
+        <v>338.7132454214973</v>
       </c>
       <c r="G21" t="n">
         <v>210.1401864545842</v>
@@ -5826,55 +5826,55 @@
         <v>111.7035619117414</v>
       </c>
       <c r="I21" t="n">
-        <v>48.67308329894364</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="J21" t="n">
-        <v>123.3207497083125</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="K21" t="n">
-        <v>377.4121203031497</v>
+        <v>302.7644538937809</v>
       </c>
       <c r="L21" t="n">
-        <v>776.3128012503596</v>
+        <v>701.6651348409907</v>
       </c>
       <c r="M21" t="n">
-        <v>1299.947595884568</v>
+        <v>945.911721419468</v>
       </c>
       <c r="N21" t="n">
-        <v>1496.800473950952</v>
+        <v>1496.800473950951</v>
       </c>
       <c r="O21" t="n">
-        <v>1925.247826096583</v>
+        <v>1925.247826096581</v>
       </c>
       <c r="P21" t="n">
-        <v>2256.43548059222</v>
+        <v>2256.435480592218</v>
       </c>
       <c r="Q21" t="n">
-        <v>2433.654164947182</v>
+        <v>2433.654164947181</v>
       </c>
       <c r="R21" t="n">
-        <v>2383.52087382617</v>
+        <v>2383.520873826169</v>
       </c>
       <c r="S21" t="n">
-        <v>2233.608635420107</v>
+        <v>2233.608635420105</v>
       </c>
       <c r="T21" t="n">
-        <v>2045.550067937005</v>
+        <v>2159.031177775294</v>
       </c>
       <c r="U21" t="n">
-        <v>1827.065501917539</v>
+        <v>1940.546611755828</v>
       </c>
       <c r="V21" t="n">
-        <v>1598.669879365873</v>
+        <v>1712.150989204162</v>
       </c>
       <c r="W21" t="n">
-        <v>1357.354010599183</v>
+        <v>1470.835120437472</v>
       </c>
       <c r="X21" t="n">
-        <v>1159.437022476978</v>
+        <v>1272.918132315267</v>
       </c>
       <c r="Y21" t="n">
-        <v>966.9156961265568</v>
+        <v>1080.396805964846</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99566494392274</v>
+        <v>52.99566494392294</v>
       </c>
       <c r="C22" t="n">
-        <v>50.42110540784017</v>
+        <v>50.42110540784026</v>
       </c>
       <c r="D22" t="n">
-        <v>50.42110540784017</v>
+        <v>50.42110540784026</v>
       </c>
       <c r="E22" t="n">
-        <v>50.42110540784017</v>
+        <v>50.42110540784026</v>
       </c>
       <c r="F22" t="n">
-        <v>50.42110540784017</v>
+        <v>50.42110540784026</v>
       </c>
       <c r="G22" t="n">
-        <v>48.67308329894364</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="H22" t="n">
-        <v>48.67308329894364</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="I22" t="n">
-        <v>48.67308329894364</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="J22" t="n">
-        <v>48.67308329894364</v>
+        <v>48.67308329894361</v>
       </c>
       <c r="K22" t="n">
-        <v>97.11638722841155</v>
+        <v>97.11638722841153</v>
       </c>
       <c r="L22" t="n">
         <v>216.7124264163565</v>
@@ -5932,28 +5932,28 @@
         <v>687.6273766049162</v>
       </c>
       <c r="R22" t="n">
-        <v>687.6273766049162</v>
+        <v>631.643061058538</v>
       </c>
       <c r="S22" t="n">
-        <v>643.2300855634618</v>
+        <v>587.2457700170834</v>
       </c>
       <c r="T22" t="n">
-        <v>577.6493493348112</v>
+        <v>521.6650337884327</v>
       </c>
       <c r="U22" t="n">
-        <v>401.5233124536423</v>
+        <v>401.5233124536431</v>
       </c>
       <c r="V22" t="n">
-        <v>307.8294180143021</v>
+        <v>307.8294180143027</v>
       </c>
       <c r="W22" t="n">
-        <v>188.7144265339383</v>
+        <v>188.7144265339389</v>
       </c>
       <c r="X22" t="n">
-        <v>124.5033724315512</v>
+        <v>124.5033724315516</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.50962362606543</v>
+        <v>69.50962362606575</v>
       </c>
     </row>
     <row r="23">
@@ -5969,43 +5969,43 @@
         <v>1143.202321442052</v>
       </c>
       <c r="D23" t="n">
-        <v>937.4197666715129</v>
+        <v>937.419766671513</v>
       </c>
       <c r="E23" t="n">
-        <v>709.6754567798569</v>
+        <v>709.675456779857</v>
       </c>
       <c r="F23" t="n">
-        <v>462.5656760922643</v>
+        <v>462.5656760922644</v>
       </c>
       <c r="G23" t="n">
-        <v>213.7936178778624</v>
+        <v>213.7936178778625</v>
       </c>
       <c r="H23" t="n">
         <v>50.98902431605158</v>
       </c>
       <c r="I23" t="n">
-        <v>56.3054974725063</v>
+        <v>56.30549747250624</v>
       </c>
       <c r="J23" t="n">
-        <v>152.4707399231485</v>
+        <v>167.8665637822921</v>
       </c>
       <c r="K23" t="n">
-        <v>428.8307279662696</v>
+        <v>444.2265518254132</v>
       </c>
       <c r="L23" t="n">
-        <v>821.649737454685</v>
+        <v>837.0455613138286</v>
       </c>
       <c r="M23" t="n">
-        <v>1264.886231991477</v>
+        <v>1280.282055850621</v>
       </c>
       <c r="N23" t="n">
-        <v>1694.023928005125</v>
+        <v>1709.419751864268</v>
       </c>
       <c r="O23" t="n">
-        <v>2047.003496116728</v>
+        <v>2062.399319975871</v>
       </c>
       <c r="P23" t="n">
-        <v>2316.105931167996</v>
+        <v>2331.501755027139</v>
       </c>
       <c r="Q23" t="n">
         <v>2456.682402979887</v>
@@ -6014,19 +6014,19 @@
         <v>2549.451215802579</v>
       </c>
       <c r="S23" t="n">
-        <v>2535.883836861199</v>
+        <v>2535.8838368612</v>
       </c>
       <c r="T23" t="n">
-        <v>2479.838044580402</v>
+        <v>2479.838044580403</v>
       </c>
       <c r="U23" t="n">
-        <v>2392.017359762967</v>
+        <v>2392.017359762968</v>
       </c>
       <c r="V23" t="n">
-        <v>2222.079495661146</v>
+        <v>2222.079495661147</v>
       </c>
       <c r="W23" t="n">
-        <v>2026.585975520984</v>
+        <v>2026.585975520985</v>
       </c>
       <c r="X23" t="n">
         <v>1811.597245044715</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>923.2933042006933</v>
+        <v>923.2933042006938</v>
       </c>
       <c r="C24" t="n">
-        <v>761.5896314416482</v>
+        <v>761.5896314416486</v>
       </c>
       <c r="D24" t="n">
-        <v>622.7509944318601</v>
+        <v>622.7509944318606</v>
       </c>
       <c r="E24" t="n">
-        <v>475.7229844887313</v>
+        <v>475.7229844887318</v>
       </c>
       <c r="F24" t="n">
-        <v>341.0291864386056</v>
+        <v>341.0291864386061</v>
       </c>
       <c r="G24" t="n">
-        <v>212.4561274716921</v>
+        <v>212.4561274716925</v>
       </c>
       <c r="H24" t="n">
         <v>114.0195029288494</v>
@@ -6075,7 +6075,7 @@
         <v>778.6287422674675</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.263536901676</v>
+        <v>1061.708772274867</v>
       </c>
       <c r="N24" t="n">
         <v>1612.59752480635</v>
@@ -6108,10 +6108,10 @@
         <v>1473.151061454581</v>
       </c>
       <c r="X24" t="n">
-        <v>1275.234073332375</v>
+        <v>1275.234073332376</v>
       </c>
       <c r="Y24" t="n">
-        <v>1082.712746981954</v>
+        <v>1082.712746981955</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.67081175274825</v>
+        <v>55.31160596103074</v>
       </c>
       <c r="C25" t="n">
-        <v>81.0962522166657</v>
+        <v>52.73704642494815</v>
       </c>
       <c r="D25" t="n">
-        <v>81.0962522166657</v>
+        <v>52.73704642494815</v>
       </c>
       <c r="E25" t="n">
-        <v>81.0962522166657</v>
+        <v>52.73704642494815</v>
       </c>
       <c r="F25" t="n">
-        <v>81.0962522166657</v>
+        <v>52.73704642494815</v>
       </c>
       <c r="G25" t="n">
-        <v>79.3482301077692</v>
+        <v>50.98902431605158</v>
       </c>
       <c r="H25" t="n">
-        <v>79.3482301077692</v>
+        <v>50.98902431605158</v>
       </c>
       <c r="I25" t="n">
-        <v>79.3482301077692</v>
+        <v>50.98902431605158</v>
       </c>
       <c r="J25" t="n">
         <v>50.98902431605158</v>
@@ -6166,31 +6166,31 @@
         <v>689.9433176220243</v>
       </c>
       <c r="Q25" t="n">
-        <v>662.318207867362</v>
+        <v>689.9433176220243</v>
       </c>
       <c r="R25" t="n">
-        <v>662.318207867362</v>
+        <v>689.9433176220243</v>
       </c>
       <c r="S25" t="n">
-        <v>617.9209168259076</v>
+        <v>589.5617110341906</v>
       </c>
       <c r="T25" t="n">
-        <v>552.340180597257</v>
+        <v>523.9809748055399</v>
       </c>
       <c r="U25" t="n">
-        <v>432.1984592624677</v>
+        <v>403.8392534707505</v>
       </c>
       <c r="V25" t="n">
-        <v>338.5045648231275</v>
+        <v>310.1453590314102</v>
       </c>
       <c r="W25" t="n">
-        <v>219.3895733427637</v>
+        <v>191.0303675510464</v>
       </c>
       <c r="X25" t="n">
-        <v>155.1785192403767</v>
+        <v>126.8193134486593</v>
       </c>
       <c r="Y25" t="n">
-        <v>100.1847704348909</v>
+        <v>71.82556464317346</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1724.053648026534</v>
+        <v>1724.053648026533</v>
       </c>
       <c r="C26" t="n">
-        <v>1450.801609161536</v>
+        <v>1450.801609161535</v>
       </c>
       <c r="D26" t="n">
-        <v>1186.659364190955</v>
+        <v>1186.659364190954</v>
       </c>
       <c r="E26" t="n">
-        <v>900.5553640992566</v>
+        <v>900.5553640992555</v>
       </c>
       <c r="F26" t="n">
-        <v>595.0858932116219</v>
+        <v>595.0858932116212</v>
       </c>
       <c r="G26" t="n">
         <v>287.9541447971778</v>
@@ -6224,13 +6224,13 @@
         <v>66.78986103532486</v>
       </c>
       <c r="J26" t="n">
-        <v>269.4740570640983</v>
+        <v>269.4740570640988</v>
       </c>
       <c r="K26" t="n">
-        <v>652.3529986853507</v>
+        <v>652.3529986853512</v>
       </c>
       <c r="L26" t="n">
-        <v>1151.690961751897</v>
+        <v>1151.690961751898</v>
       </c>
       <c r="M26" t="n">
         <v>1701.446409866821</v>
@@ -6239,7 +6239,7 @@
         <v>2237.1030594586</v>
       </c>
       <c r="O26" t="n">
-        <v>2696.601581148333</v>
+        <v>2696.601581148334</v>
       </c>
       <c r="P26" t="n">
         <v>3072.222969777733</v>
@@ -6257,19 +6257,19 @@
         <v>3195.955163700182</v>
       </c>
       <c r="U26" t="n">
-        <v>3049.774788682705</v>
+        <v>3049.774788682704</v>
       </c>
       <c r="V26" t="n">
-        <v>2821.477234380841</v>
+        <v>2821.47723438084</v>
       </c>
       <c r="W26" t="n">
-        <v>2567.624024040637</v>
+        <v>2567.624024040636</v>
       </c>
       <c r="X26" t="n">
         <v>2294.275603364325</v>
       </c>
       <c r="Y26" t="n">
-        <v>2009.415467742358</v>
+        <v>2009.415467742357</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>66.78986103532486</v>
       </c>
       <c r="J27" t="n">
-        <v>66.78986103532486</v>
+        <v>141.4375274446937</v>
       </c>
       <c r="K27" t="n">
-        <v>320.8812316301621</v>
+        <v>395.528898039531</v>
       </c>
       <c r="L27" t="n">
-        <v>719.7819125773719</v>
+        <v>794.4295789867408</v>
       </c>
       <c r="M27" t="n">
-        <v>1243.41670721158</v>
+        <v>1318.064373620949</v>
       </c>
       <c r="N27" t="n">
-        <v>1794.305459743063</v>
+        <v>1805.617045880585</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.752811888693</v>
+        <v>2234.064398026215</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.940466384331</v>
+        <v>2565.252052521852</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.252052521852</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>400.4828705355484</v>
+        <v>400.4828705355482</v>
       </c>
       <c r="C28" t="n">
-        <v>339.5486207994235</v>
+        <v>339.5486207994234</v>
       </c>
       <c r="D28" t="n">
         <v>295.1584474293811</v>
@@ -6370,43 +6370,43 @@
         <v>251.8311529928949</v>
       </c>
       <c r="F28" t="n">
-        <v>208.0322178208669</v>
+        <v>208.032217820867</v>
       </c>
       <c r="G28" t="n">
         <v>147.9245055119284</v>
       </c>
       <c r="H28" t="n">
-        <v>98.39221243479687</v>
+        <v>98.39221243479686</v>
       </c>
       <c r="I28" t="n">
         <v>66.78986103532486</v>
       </c>
       <c r="J28" t="n">
-        <v>123.4767468884273</v>
+        <v>123.4767468884274</v>
       </c>
       <c r="K28" t="n">
-        <v>278.4390043960265</v>
+        <v>278.4390043960266</v>
       </c>
       <c r="L28" t="n">
-        <v>504.5539971621027</v>
+        <v>504.5539971621026</v>
       </c>
       <c r="M28" t="n">
-        <v>749.0876525153265</v>
+        <v>749.0876525153261</v>
       </c>
       <c r="N28" t="n">
-        <v>993.5740842076237</v>
+        <v>993.5740842076233</v>
       </c>
       <c r="O28" t="n">
         <v>1216.609781186112</v>
       </c>
       <c r="P28" t="n">
-        <v>1401.544761663188</v>
+        <v>1401.544761663187</v>
       </c>
       <c r="Q28" t="n">
         <v>1480.988345170774</v>
       </c>
       <c r="R28" t="n">
-        <v>1446.0077882505</v>
+        <v>1446.007788250499</v>
       </c>
       <c r="S28" t="n">
         <v>1343.250807009003</v>
@@ -6421,13 +6421,13 @@
         <v>888.7553844060963</v>
       </c>
       <c r="W28" t="n">
-        <v>711.2807027256904</v>
+        <v>711.2807027256903</v>
       </c>
       <c r="X28" t="n">
-        <v>588.7099584232612</v>
+        <v>588.709958423261</v>
       </c>
       <c r="Y28" t="n">
-        <v>475.3565194177332</v>
+        <v>475.356519417733</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>1776.988919130102</v>
       </c>
       <c r="C29" t="n">
-        <v>1503.736880265104</v>
+        <v>1503.736880265105</v>
       </c>
       <c r="D29" t="n">
         <v>1239.594635294523</v>
@@ -6449,19 +6449,19 @@
         <v>953.4906352028243</v>
       </c>
       <c r="F29" t="n">
-        <v>648.0211643151895</v>
+        <v>648.0211643151896</v>
       </c>
       <c r="G29" t="n">
         <v>340.8894159007455</v>
       </c>
       <c r="H29" t="n">
-        <v>119.7251321388925</v>
+        <v>119.7251321388926</v>
       </c>
       <c r="I29" t="n">
-        <v>66.78986103532486</v>
+        <v>66.78986103532489</v>
       </c>
       <c r="J29" t="n">
-        <v>269.4740570640984</v>
+        <v>269.4740570640982</v>
       </c>
       <c r="K29" t="n">
         <v>652.3529986853507</v>
@@ -6476,16 +6476,16 @@
         <v>2237.1030594586</v>
       </c>
       <c r="O29" t="n">
-        <v>2696.601581148333</v>
+        <v>2696.601581148335</v>
       </c>
       <c r="P29" t="n">
-        <v>3072.222969777733</v>
+        <v>3072.222969777734</v>
       </c>
       <c r="Q29" t="n">
         <v>3303.922571308613</v>
       </c>
       <c r="R29" t="n">
-        <v>3339.493051766243</v>
+        <v>3339.493051766244</v>
       </c>
       <c r="S29" t="n">
         <v>3267.565982624822</v>
@@ -6497,16 +6497,16 @@
         <v>3006.980125126506</v>
       </c>
       <c r="V29" t="n">
-        <v>2778.682570824642</v>
+        <v>2874.412505484409</v>
       </c>
       <c r="W29" t="n">
-        <v>2524.829360484438</v>
+        <v>2620.559295144205</v>
       </c>
       <c r="X29" t="n">
-        <v>2251.480939808126</v>
+        <v>2347.210874467894</v>
       </c>
       <c r="Y29" t="n">
-        <v>2062.350738845926</v>
+        <v>2062.350738845927</v>
       </c>
     </row>
     <row r="30">
@@ -6537,10 +6537,10 @@
         <v>129.8203396481227</v>
       </c>
       <c r="I30" t="n">
-        <v>66.78986103532486</v>
+        <v>66.78986103532489</v>
       </c>
       <c r="J30" t="n">
-        <v>66.78986103532486</v>
+        <v>66.78986103532489</v>
       </c>
       <c r="K30" t="n">
         <v>320.8812316301621</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>400.4828705355486</v>
+        <v>400.4828705355481</v>
       </c>
       <c r="C31" t="n">
-        <v>339.5486207994238</v>
+        <v>339.5486207994234</v>
       </c>
       <c r="D31" t="n">
-        <v>295.1584474293815</v>
+        <v>295.1584474293811</v>
       </c>
       <c r="E31" t="n">
-        <v>251.8311529928953</v>
+        <v>251.8311529928948</v>
       </c>
       <c r="F31" t="n">
-        <v>208.0322178208674</v>
+        <v>208.0322178208669</v>
       </c>
       <c r="G31" t="n">
-        <v>147.9245055119287</v>
+        <v>147.9245055119282</v>
       </c>
       <c r="H31" t="n">
-        <v>98.3922124347971</v>
+        <v>98.3922124347969</v>
       </c>
       <c r="I31" t="n">
-        <v>66.78986103532486</v>
+        <v>66.78986103532489</v>
       </c>
       <c r="J31" t="n">
-        <v>123.4767468884279</v>
+        <v>123.4767468884273</v>
       </c>
       <c r="K31" t="n">
-        <v>278.4390043960271</v>
+        <v>278.4390043960266</v>
       </c>
       <c r="L31" t="n">
-        <v>504.5539971621034</v>
+        <v>504.5539971621027</v>
       </c>
       <c r="M31" t="n">
-        <v>749.0876525153269</v>
+        <v>749.0876525153262</v>
       </c>
       <c r="N31" t="n">
-        <v>993.5740842076245</v>
+        <v>993.5740842076236</v>
       </c>
       <c r="O31" t="n">
-        <v>1216.609781186113</v>
+        <v>1216.609781186112</v>
       </c>
       <c r="P31" t="n">
         <v>1401.544761663188</v>
       </c>
       <c r="Q31" t="n">
-        <v>1480.988345170775</v>
+        <v>1480.988345170774</v>
       </c>
       <c r="R31" t="n">
         <v>1446.0077882505</v>
       </c>
       <c r="S31" t="n">
-        <v>1343.250807009004</v>
+        <v>1343.250807009003</v>
       </c>
       <c r="T31" t="n">
-        <v>1219.310380580311</v>
+        <v>1219.31038058031</v>
       </c>
       <c r="U31" t="n">
         <v>1040.808969045479</v>
       </c>
       <c r="V31" t="n">
-        <v>888.7553844060967</v>
+        <v>888.755384406096</v>
       </c>
       <c r="W31" t="n">
-        <v>711.2807027256908</v>
+        <v>711.2807027256902</v>
       </c>
       <c r="X31" t="n">
-        <v>588.7099584232615</v>
+        <v>588.7099584232609</v>
       </c>
       <c r="Y31" t="n">
-        <v>475.3565194177335</v>
+        <v>475.356519417733</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1358.094670107007</v>
+        <v>1358.094670107008</v>
       </c>
       <c r="C32" t="n">
         <v>1143.202321442052</v>
       </c>
       <c r="D32" t="n">
-        <v>937.419766671513</v>
+        <v>937.4197666715131</v>
       </c>
       <c r="E32" t="n">
-        <v>709.6754567798571</v>
+        <v>709.6754567798572</v>
       </c>
       <c r="F32" t="n">
-        <v>462.5656760922647</v>
+        <v>462.5656760922648</v>
       </c>
       <c r="G32" t="n">
         <v>213.7936178778623</v>
@@ -6695,16 +6695,16 @@
         <v>50.98902431605158</v>
       </c>
       <c r="I32" t="n">
-        <v>56.30549747250637</v>
+        <v>56.30549747250632</v>
       </c>
       <c r="J32" t="n">
-        <v>167.8665637822916</v>
+        <v>152.4707399231485</v>
       </c>
       <c r="K32" t="n">
-        <v>444.2265518254127</v>
+        <v>428.8307279662696</v>
       </c>
       <c r="L32" t="n">
-        <v>837.0455613138281</v>
+        <v>821.649737454685</v>
       </c>
       <c r="M32" t="n">
         <v>1280.28205585062</v>
@@ -6725,25 +6725,25 @@
         <v>2549.451215802579</v>
       </c>
       <c r="S32" t="n">
-        <v>2535.8838368612</v>
+        <v>2535.883836861199</v>
       </c>
       <c r="T32" t="n">
-        <v>2479.838044580403</v>
+        <v>2479.838044580402</v>
       </c>
       <c r="U32" t="n">
         <v>2392.017359762967</v>
       </c>
       <c r="V32" t="n">
-        <v>2222.079495661145</v>
+        <v>2222.079495661146</v>
       </c>
       <c r="W32" t="n">
         <v>2026.585975520984</v>
       </c>
       <c r="X32" t="n">
-        <v>1811.597245044714</v>
+        <v>1811.597245044715</v>
       </c>
       <c r="Y32" t="n">
-        <v>1585.096799622789</v>
+        <v>1585.09679962279</v>
       </c>
     </row>
     <row r="33">
@@ -6786,16 +6786,16 @@
         <v>703.9810758580986</v>
       </c>
       <c r="M33" t="n">
-        <v>1227.615870492307</v>
+        <v>1061.708772274866</v>
       </c>
       <c r="N33" t="n">
-        <v>1778.50462302379</v>
+        <v>1612.597524806349</v>
       </c>
       <c r="O33" t="n">
-        <v>2206.95197516942</v>
+        <v>2041.044876951979</v>
       </c>
       <c r="P33" t="n">
-        <v>2538.139629665057</v>
+        <v>2372.232531447617</v>
       </c>
       <c r="Q33" t="n">
         <v>2549.451215802579</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>55.31160596103045</v>
+        <v>55.31160596103057</v>
       </c>
       <c r="C34" t="n">
-        <v>52.737046424948</v>
+        <v>52.73704642494805</v>
       </c>
       <c r="D34" t="n">
-        <v>52.737046424948</v>
+        <v>52.73704642494805</v>
       </c>
       <c r="E34" t="n">
-        <v>52.737046424948</v>
+        <v>52.73704642494805</v>
       </c>
       <c r="F34" t="n">
-        <v>52.737046424948</v>
+        <v>52.73704642494805</v>
       </c>
       <c r="G34" t="n">
         <v>50.98902431605158</v>
@@ -6883,25 +6883,25 @@
         <v>689.9433176220243</v>
       </c>
       <c r="S34" t="n">
-        <v>645.54602658057</v>
+        <v>645.5460265805699</v>
       </c>
       <c r="T34" t="n">
-        <v>523.9809748055387</v>
+        <v>579.9652903519193</v>
       </c>
       <c r="U34" t="n">
-        <v>403.8392534707494</v>
+        <v>403.8392534707498</v>
       </c>
       <c r="V34" t="n">
-        <v>310.1453590314093</v>
+        <v>310.1453590314096</v>
       </c>
       <c r="W34" t="n">
-        <v>191.0303675510457</v>
+        <v>191.0303675510459</v>
       </c>
       <c r="X34" t="n">
-        <v>126.8193134486587</v>
+        <v>126.8193134486589</v>
       </c>
       <c r="Y34" t="n">
-        <v>71.82556464317302</v>
+        <v>71.82556464317319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1358.094670107007</v>
+        <v>1358.094670107008</v>
       </c>
       <c r="C35" t="n">
         <v>1143.202321442052</v>
       </c>
       <c r="D35" t="n">
-        <v>937.4197666715125</v>
+        <v>937.4197666715131</v>
       </c>
       <c r="E35" t="n">
-        <v>709.6754567798564</v>
+        <v>709.6754567798572</v>
       </c>
       <c r="F35" t="n">
-        <v>462.5656760922639</v>
+        <v>462.5656760922648</v>
       </c>
       <c r="G35" t="n">
-        <v>213.7936178778624</v>
+        <v>213.7936178778623</v>
       </c>
       <c r="H35" t="n">
-        <v>50.98902431605159</v>
+        <v>50.98902431605158</v>
       </c>
       <c r="I35" t="n">
-        <v>56.30549747250625</v>
+        <v>56.30549747250632</v>
       </c>
       <c r="J35" t="n">
-        <v>152.4707399231484</v>
+        <v>152.4707399231485</v>
       </c>
       <c r="K35" t="n">
-        <v>428.8307279662695</v>
+        <v>428.8307279662696</v>
       </c>
       <c r="L35" t="n">
-        <v>821.6497374546849</v>
+        <v>821.649737454685</v>
       </c>
       <c r="M35" t="n">
         <v>1264.886231991477</v>
@@ -6950,16 +6950,16 @@
         <v>1694.023928005125</v>
       </c>
       <c r="O35" t="n">
-        <v>2047.003496116727</v>
+        <v>2047.003496116728</v>
       </c>
       <c r="P35" t="n">
         <v>2316.105931167996</v>
       </c>
       <c r="Q35" t="n">
-        <v>2456.682402979888</v>
+        <v>2456.682402979887</v>
       </c>
       <c r="R35" t="n">
-        <v>2549.45121580258</v>
+        <v>2549.451215802579</v>
       </c>
       <c r="S35" t="n">
         <v>2535.8838368612</v>
@@ -6977,10 +6977,10 @@
         <v>2026.585975520984</v>
       </c>
       <c r="X35" t="n">
-        <v>1811.597245044714</v>
+        <v>1811.597245044715</v>
       </c>
       <c r="Y35" t="n">
-        <v>1585.096799622789</v>
+        <v>1585.09679962279</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>923.2933042006941</v>
+        <v>923.2933042006938</v>
       </c>
       <c r="C36" t="n">
-        <v>761.5896314416489</v>
+        <v>761.5896314416486</v>
       </c>
       <c r="D36" t="n">
-        <v>622.7509944318609</v>
+        <v>622.7509944318606</v>
       </c>
       <c r="E36" t="n">
-        <v>475.7229844887322</v>
+        <v>475.7229844887318</v>
       </c>
       <c r="F36" t="n">
-        <v>341.0291864386065</v>
+        <v>341.0291864386061</v>
       </c>
       <c r="G36" t="n">
-        <v>212.4561274716934</v>
+        <v>212.4561274716925</v>
       </c>
       <c r="H36" t="n">
-        <v>114.0195029288507</v>
+        <v>114.0195029288494</v>
       </c>
       <c r="I36" t="n">
-        <v>50.98902431605159</v>
+        <v>50.98902431605158</v>
       </c>
       <c r="J36" t="n">
         <v>125.6366907254205</v>
@@ -7035,10 +7035,10 @@
         <v>2372.232531447617</v>
       </c>
       <c r="Q36" t="n">
-        <v>2549.45121580258</v>
+        <v>2549.451215802579</v>
       </c>
       <c r="R36" t="n">
-        <v>2499.317924681568</v>
+        <v>2499.317924681567</v>
       </c>
       <c r="S36" t="n">
         <v>2349.405686275504</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.31160596103075</v>
+        <v>111.2959215074108</v>
       </c>
       <c r="C37" t="n">
-        <v>52.73704642494815</v>
+        <v>108.7213619713282</v>
       </c>
       <c r="D37" t="n">
-        <v>52.73704642494815</v>
+        <v>108.7213619713282</v>
       </c>
       <c r="E37" t="n">
-        <v>52.73704642494815</v>
+        <v>108.7213619713282</v>
       </c>
       <c r="F37" t="n">
-        <v>52.73704642494815</v>
+        <v>52.73704642494806</v>
       </c>
       <c r="G37" t="n">
-        <v>50.98902431605159</v>
+        <v>50.98902431605158</v>
       </c>
       <c r="H37" t="n">
-        <v>50.98902431605159</v>
+        <v>50.98902431605158</v>
       </c>
       <c r="I37" t="n">
-        <v>50.98902431605159</v>
+        <v>50.98902431605158</v>
       </c>
       <c r="J37" t="n">
-        <v>50.98902431605159</v>
+        <v>50.98902431605158</v>
       </c>
       <c r="K37" t="n">
-        <v>99.43232824551951</v>
+        <v>99.4323282455195</v>
       </c>
       <c r="L37" t="n">
-        <v>219.0283674334645</v>
+        <v>219.0283674334644</v>
       </c>
       <c r="M37" t="n">
         <v>357.0430692085567</v>
@@ -7120,25 +7120,25 @@
         <v>689.9433176220243</v>
       </c>
       <c r="S37" t="n">
-        <v>645.5460265805698</v>
+        <v>645.5460265805699</v>
       </c>
       <c r="T37" t="n">
-        <v>579.9652903519191</v>
+        <v>579.9652903519193</v>
       </c>
       <c r="U37" t="n">
-        <v>459.8235690171297</v>
+        <v>459.82356901713</v>
       </c>
       <c r="V37" t="n">
-        <v>366.1296745777894</v>
+        <v>366.1296745777898</v>
       </c>
       <c r="W37" t="n">
-        <v>247.0146830974256</v>
+        <v>247.0146830974261</v>
       </c>
       <c r="X37" t="n">
-        <v>126.8193134486593</v>
+        <v>182.8036289950391</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.82556464317346</v>
+        <v>127.8098801895534</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1358.094670107007</v>
+        <v>1358.094670107008</v>
       </c>
       <c r="C38" t="n">
         <v>1143.202321442052</v>
       </c>
       <c r="D38" t="n">
-        <v>937.4197666715127</v>
+        <v>937.4197666715129</v>
       </c>
       <c r="E38" t="n">
         <v>709.6754567798566</v>
@@ -7163,37 +7163,37 @@
         <v>462.5656760922643</v>
       </c>
       <c r="G38" t="n">
-        <v>213.7936178778625</v>
+        <v>213.7936178778624</v>
       </c>
       <c r="H38" t="n">
         <v>50.98902431605159</v>
       </c>
       <c r="I38" t="n">
-        <v>50.98902431605159</v>
+        <v>56.30549747250625</v>
       </c>
       <c r="J38" t="n">
-        <v>260.6353766049845</v>
+        <v>167.8665637822925</v>
       </c>
       <c r="K38" t="n">
-        <v>536.9953646481056</v>
+        <v>444.2265518254137</v>
       </c>
       <c r="L38" t="n">
-        <v>929.8143741365209</v>
+        <v>837.045561313829</v>
       </c>
       <c r="M38" t="n">
-        <v>1373.050868673313</v>
+        <v>1280.282055850621</v>
       </c>
       <c r="N38" t="n">
-        <v>1802.188564686961</v>
+        <v>1709.419751864269</v>
       </c>
       <c r="O38" t="n">
-        <v>2155.168132798563</v>
+        <v>2062.399319975872</v>
       </c>
       <c r="P38" t="n">
-        <v>2424.270567849831</v>
+        <v>2331.50175502714</v>
       </c>
       <c r="Q38" t="n">
-        <v>2549.45121580258</v>
+        <v>2456.682402979888</v>
       </c>
       <c r="R38" t="n">
         <v>2549.45121580258</v>
@@ -7251,37 +7251,37 @@
         <v>50.98902431605159</v>
       </c>
       <c r="J39" t="n">
-        <v>62.30061045357357</v>
+        <v>50.98902431605159</v>
       </c>
       <c r="K39" t="n">
-        <v>316.3919810484108</v>
+        <v>305.0803949108888</v>
       </c>
       <c r="L39" t="n">
-        <v>715.2926619956206</v>
+        <v>703.9810758580986</v>
       </c>
       <c r="M39" t="n">
-        <v>1238.927456629829</v>
+        <v>1227.615870492307</v>
       </c>
       <c r="N39" t="n">
-        <v>1789.816209161312</v>
+        <v>1778.50462302379</v>
       </c>
       <c r="O39" t="n">
-        <v>2218.263561306942</v>
+        <v>2206.95197516942</v>
       </c>
       <c r="P39" t="n">
-        <v>2549.45121580258</v>
+        <v>2538.139629665057</v>
       </c>
       <c r="Q39" t="n">
         <v>2549.45121580258</v>
       </c>
       <c r="R39" t="n">
-        <v>2499.317924681567</v>
+        <v>2499.317924681568</v>
       </c>
       <c r="S39" t="n">
-        <v>2349.405686275503</v>
+        <v>2349.405686275504</v>
       </c>
       <c r="T39" t="n">
-        <v>2161.347118792402</v>
+        <v>2161.347118792403</v>
       </c>
       <c r="U39" t="n">
         <v>1942.862552772936</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.31160596103075</v>
+        <v>111.29592150741</v>
       </c>
       <c r="C40" t="n">
-        <v>52.73704642494815</v>
+        <v>108.7213619713274</v>
       </c>
       <c r="D40" t="n">
-        <v>52.73704642494815</v>
+        <v>108.7213619713274</v>
       </c>
       <c r="E40" t="n">
-        <v>52.73704642494815</v>
+        <v>108.7213619713274</v>
       </c>
       <c r="F40" t="n">
-        <v>52.73704642494815</v>
+        <v>108.7213619713274</v>
       </c>
       <c r="G40" t="n">
-        <v>50.98902431605159</v>
+        <v>106.9733398624308</v>
       </c>
       <c r="H40" t="n">
         <v>50.98902431605159</v>
@@ -7357,25 +7357,25 @@
         <v>689.9433176220243</v>
       </c>
       <c r="S40" t="n">
-        <v>589.5617110341906</v>
+        <v>645.5460265805698</v>
       </c>
       <c r="T40" t="n">
-        <v>523.9809748055399</v>
+        <v>579.9652903519191</v>
       </c>
       <c r="U40" t="n">
-        <v>403.8392534707505</v>
+        <v>459.8235690171297</v>
       </c>
       <c r="V40" t="n">
-        <v>310.1453590314102</v>
+        <v>366.1296745777894</v>
       </c>
       <c r="W40" t="n">
-        <v>191.0303675510464</v>
+        <v>247.0146830974256</v>
       </c>
       <c r="X40" t="n">
-        <v>126.8193134486593</v>
+        <v>182.8036289950385</v>
       </c>
       <c r="Y40" t="n">
-        <v>71.82556464317346</v>
+        <v>127.8098801895527</v>
       </c>
     </row>
     <row r="41">
@@ -7391,22 +7391,22 @@
         <v>1086.865715902955</v>
       </c>
       <c r="D41" t="n">
-        <v>874.823538294738</v>
+        <v>874.8235382947382</v>
       </c>
       <c r="E41" t="n">
-        <v>640.8196055654045</v>
+        <v>640.8196055654048</v>
       </c>
       <c r="F41" t="n">
-        <v>475.9201255088224</v>
+        <v>475.920125508822</v>
       </c>
       <c r="G41" t="n">
-        <v>220.8884444567429</v>
+        <v>220.8884444567427</v>
       </c>
       <c r="H41" t="n">
-        <v>51.82422805725462</v>
+        <v>51.82422805725449</v>
       </c>
       <c r="I41" t="n">
-        <v>50.98902431605159</v>
+        <v>50.98902431605158</v>
       </c>
       <c r="J41" t="n">
         <v>147.1542667666938</v>
@@ -7430,22 +7430,22 @@
         <v>2310.789458011541</v>
       </c>
       <c r="Q41" t="n">
-        <v>2549.45121580258</v>
+        <v>2549.451215802579</v>
       </c>
       <c r="R41" t="n">
-        <v>2549.45121580258</v>
+        <v>2549.451215802579</v>
       </c>
       <c r="S41" t="n">
-        <v>2529.624214023523</v>
+        <v>2529.624214023522</v>
       </c>
       <c r="T41" t="n">
         <v>2467.318798905048</v>
       </c>
       <c r="U41" t="n">
-        <v>2373.238491249936</v>
+        <v>2373.238491249935</v>
       </c>
       <c r="V41" t="n">
-        <v>2197.041004310437</v>
+        <v>2197.041004310436</v>
       </c>
       <c r="W41" t="n">
         <v>1995.287861332597</v>
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>923.2933042006941</v>
+        <v>923.2933042006933</v>
       </c>
       <c r="C42" t="n">
-        <v>761.5896314416489</v>
+        <v>761.5896314416482</v>
       </c>
       <c r="D42" t="n">
-        <v>622.7509944318609</v>
+        <v>622.7509944318601</v>
       </c>
       <c r="E42" t="n">
-        <v>475.7229844887322</v>
+        <v>475.7229844887313</v>
       </c>
       <c r="F42" t="n">
-        <v>341.0291864386065</v>
+        <v>341.0291864386056</v>
       </c>
       <c r="G42" t="n">
-        <v>212.4561274716934</v>
+        <v>212.4561274716922</v>
       </c>
       <c r="H42" t="n">
-        <v>114.0195029288507</v>
+        <v>114.0195029288494</v>
       </c>
       <c r="I42" t="n">
-        <v>50.98902431605159</v>
+        <v>50.98902431605158</v>
       </c>
       <c r="J42" t="n">
-        <v>125.6366907254205</v>
+        <v>50.98902431605158</v>
       </c>
       <c r="K42" t="n">
-        <v>379.7280613202577</v>
+        <v>139.1732966934483</v>
       </c>
       <c r="L42" t="n">
-        <v>778.6287422674675</v>
+        <v>538.0739776406581</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.263536901676</v>
+        <v>1061.708772274867</v>
       </c>
       <c r="N42" t="n">
         <v>1612.59752480635</v>
@@ -7509,10 +7509,10 @@
         <v>2372.232531447617</v>
       </c>
       <c r="Q42" t="n">
-        <v>2549.45121580258</v>
+        <v>2549.451215802579</v>
       </c>
       <c r="R42" t="n">
-        <v>2499.317924681568</v>
+        <v>2499.317924681567</v>
       </c>
       <c r="S42" t="n">
         <v>2349.405686275504</v>
@@ -7530,10 +7530,10 @@
         <v>1473.151061454581</v>
       </c>
       <c r="X42" t="n">
-        <v>1275.234073332376</v>
+        <v>1275.234073332375</v>
       </c>
       <c r="Y42" t="n">
-        <v>1082.712746981955</v>
+        <v>1082.712746981954</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.83085163638577</v>
+        <v>67.83085163638553</v>
       </c>
       <c r="C43" t="n">
-        <v>58.99666926262566</v>
+        <v>58.99666926262554</v>
       </c>
       <c r="D43" t="n">
-        <v>58.99666926262566</v>
+        <v>58.99666926262554</v>
       </c>
       <c r="E43" t="n">
-        <v>58.99666926262566</v>
+        <v>58.99666926262554</v>
       </c>
       <c r="F43" t="n">
-        <v>58.99666926262566</v>
+        <v>58.99666926262554</v>
       </c>
       <c r="G43" t="n">
-        <v>50.98902431605159</v>
+        <v>50.98902431605158</v>
       </c>
       <c r="H43" t="n">
-        <v>50.98902431605159</v>
+        <v>50.98902431605158</v>
       </c>
       <c r="I43" t="n">
-        <v>50.98902431605159</v>
+        <v>50.98902431605158</v>
       </c>
       <c r="J43" t="n">
-        <v>50.98902431605159</v>
+        <v>50.98902431605158</v>
       </c>
       <c r="K43" t="n">
-        <v>99.43232824551951</v>
+        <v>106.0442410759143</v>
       </c>
       <c r="L43" t="n">
-        <v>225.6402802638604</v>
+        <v>225.6402802638593</v>
       </c>
       <c r="M43" t="n">
-        <v>363.6549820389527</v>
+        <v>363.6549820389515</v>
       </c>
       <c r="N43" t="n">
-        <v>501.6224601531189</v>
+        <v>501.6224601531177</v>
       </c>
       <c r="O43" t="n">
-        <v>618.1392035534761</v>
+        <v>618.139203553475</v>
       </c>
       <c r="P43" t="n">
-        <v>696.5552304524202</v>
+        <v>696.5552304524191</v>
       </c>
       <c r="Q43" t="n">
-        <v>696.5552304524202</v>
+        <v>696.5552304524191</v>
       </c>
       <c r="R43" t="n">
-        <v>696.5552304524202</v>
+        <v>696.5552304524191</v>
       </c>
       <c r="S43" t="n">
-        <v>645.8983165732882</v>
+        <v>645.8983165732872</v>
       </c>
       <c r="T43" t="n">
-        <v>574.05795750696</v>
+        <v>574.057957506959</v>
       </c>
       <c r="U43" t="n">
-        <v>447.656613334493</v>
+        <v>447.6566133344922</v>
       </c>
       <c r="V43" t="n">
-        <v>347.7030960574752</v>
+        <v>347.7030960574746</v>
       </c>
       <c r="W43" t="n">
-        <v>222.328481739434</v>
+        <v>222.3284817394334</v>
       </c>
       <c r="X43" t="n">
-        <v>151.8578047993693</v>
+        <v>151.8578047993688</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.604433156206</v>
+        <v>90.60443315620564</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1327.844689184645</v>
+        <v>1308.017687405589</v>
       </c>
       <c r="C44" t="n">
-        <v>1106.692717682012</v>
+        <v>1086.865715902956</v>
       </c>
       <c r="D44" t="n">
-        <v>894.6505400737949</v>
+        <v>874.8235382947389</v>
       </c>
       <c r="E44" t="n">
-        <v>660.6466073444614</v>
+        <v>640.8196055654053</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2772038191913</v>
+        <v>387.4502020401354</v>
       </c>
       <c r="G44" t="n">
-        <v>152.2455227671117</v>
+        <v>132.4185209880561</v>
       </c>
       <c r="H44" t="n">
-        <v>51.82422805725461</v>
+        <v>51.82422805725449</v>
       </c>
       <c r="I44" t="n">
         <v>50.98902431605158</v>
@@ -7655,43 +7655,43 @@
         <v>816.3332642982302</v>
       </c>
       <c r="M44" t="n">
-        <v>1259.569758835022</v>
+        <v>1373.050868673313</v>
       </c>
       <c r="N44" t="n">
-        <v>1688.70745484867</v>
+        <v>1802.18856468696</v>
       </c>
       <c r="O44" t="n">
-        <v>2041.687022960273</v>
+        <v>2155.168132798563</v>
       </c>
       <c r="P44" t="n">
-        <v>2310.789458011541</v>
+        <v>2424.270567849831</v>
       </c>
       <c r="Q44" t="n">
-        <v>2462.817459323095</v>
+        <v>2549.451215802579</v>
       </c>
       <c r="R44" t="n">
         <v>2549.451215802579</v>
       </c>
       <c r="S44" t="n">
-        <v>2549.451215802579</v>
+        <v>2529.624214023522</v>
       </c>
       <c r="T44" t="n">
-        <v>2487.145800684104</v>
+        <v>2467.318798905048</v>
       </c>
       <c r="U44" t="n">
-        <v>2393.065493028992</v>
+        <v>2373.238491249936</v>
       </c>
       <c r="V44" t="n">
-        <v>2216.868006089493</v>
+        <v>2197.041004310437</v>
       </c>
       <c r="W44" t="n">
-        <v>2015.114863111654</v>
+        <v>1995.287861332597</v>
       </c>
       <c r="X44" t="n">
-        <v>1793.866509797707</v>
+        <v>1774.03950801865</v>
       </c>
       <c r="Y44" t="n">
-        <v>1561.106441538104</v>
+        <v>1541.279439759048</v>
       </c>
     </row>
     <row r="45">
@@ -7704,7 +7704,7 @@
         <v>923.2933042006929</v>
       </c>
       <c r="C45" t="n">
-        <v>761.5896314416477</v>
+        <v>761.5896314416476</v>
       </c>
       <c r="D45" t="n">
         <v>622.7509944318597</v>
@@ -7716,7 +7716,7 @@
         <v>341.0291864386052</v>
       </c>
       <c r="G45" t="n">
-        <v>212.4561274716922</v>
+        <v>212.4561274716921</v>
       </c>
       <c r="H45" t="n">
         <v>114.0195029288494</v>
@@ -7725,16 +7725,16 @@
         <v>50.98902431605158</v>
       </c>
       <c r="J45" t="n">
-        <v>125.6366907254205</v>
+        <v>50.98902431605158</v>
       </c>
       <c r="K45" t="n">
-        <v>379.7280613202577</v>
+        <v>305.0803949108888</v>
       </c>
       <c r="L45" t="n">
-        <v>778.6287422674675</v>
+        <v>703.9810758580986</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.263536901676</v>
+        <v>1061.708772274867</v>
       </c>
       <c r="N45" t="n">
         <v>1612.59752480635</v>
@@ -7752,7 +7752,7 @@
         <v>2499.317924681567</v>
       </c>
       <c r="S45" t="n">
-        <v>2349.405686275503</v>
+        <v>2349.405686275504</v>
       </c>
       <c r="T45" t="n">
         <v>2161.347118792402</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>67.83085163638577</v>
+        <v>67.83085163638553</v>
       </c>
       <c r="C46" t="n">
-        <v>58.99666926262566</v>
+        <v>58.99666926262554</v>
       </c>
       <c r="D46" t="n">
-        <v>58.99666926262566</v>
+        <v>58.99666926262554</v>
       </c>
       <c r="E46" t="n">
-        <v>58.99666926262566</v>
+        <v>58.99666926262554</v>
       </c>
       <c r="F46" t="n">
-        <v>58.99666926262566</v>
+        <v>58.99666926262554</v>
       </c>
       <c r="G46" t="n">
         <v>50.98902431605158</v>
@@ -7801,55 +7801,55 @@
         <v>50.98902431605158</v>
       </c>
       <c r="I46" t="n">
-        <v>57.60093714644753</v>
+        <v>50.98902431605158</v>
       </c>
       <c r="J46" t="n">
-        <v>57.60093714644753</v>
+        <v>50.98902431605158</v>
       </c>
       <c r="K46" t="n">
-        <v>106.0442410759155</v>
+        <v>99.4323282455195</v>
       </c>
       <c r="L46" t="n">
-        <v>225.6402802638604</v>
+        <v>225.6402802638593</v>
       </c>
       <c r="M46" t="n">
-        <v>363.6549820389527</v>
+        <v>363.6549820389515</v>
       </c>
       <c r="N46" t="n">
-        <v>501.6224601531189</v>
+        <v>501.6224601531177</v>
       </c>
       <c r="O46" t="n">
-        <v>618.1392035534761</v>
+        <v>618.139203553475</v>
       </c>
       <c r="P46" t="n">
-        <v>696.5552304524202</v>
+        <v>696.5552304524191</v>
       </c>
       <c r="Q46" t="n">
-        <v>696.5552304524202</v>
+        <v>696.5552304524191</v>
       </c>
       <c r="R46" t="n">
-        <v>696.5552304524202</v>
+        <v>696.5552304524191</v>
       </c>
       <c r="S46" t="n">
-        <v>645.8983165732882</v>
+        <v>645.8983165732872</v>
       </c>
       <c r="T46" t="n">
-        <v>574.05795750696</v>
+        <v>574.057957506959</v>
       </c>
       <c r="U46" t="n">
-        <v>447.656613334493</v>
+        <v>447.6566133344922</v>
       </c>
       <c r="V46" t="n">
-        <v>347.7030960574752</v>
+        <v>347.7030960574746</v>
       </c>
       <c r="W46" t="n">
-        <v>222.328481739434</v>
+        <v>222.3284817394334</v>
       </c>
       <c r="X46" t="n">
-        <v>151.8578047993693</v>
+        <v>151.8578047993688</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.604433156206</v>
+        <v>90.60443315620564</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>178.8230039740467</v>
+        <v>236.3425848424856</v>
       </c>
       <c r="L2" t="n">
-        <v>321.8055953273168</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M2" t="n">
         <v>322.8857137945909</v>
@@ -7991,7 +7991,7 @@
         <v>322.1275134696619</v>
       </c>
       <c r="O2" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P2" t="n">
         <v>187.8768090511565</v>
@@ -8055,10 +8055,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>247.7255684640984</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
         <v>248.3048328685796</v>
@@ -8070,13 +8070,13 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>246.1048317753133</v>
       </c>
       <c r="P3" t="n">
         <v>244.5836053215751</v>
       </c>
       <c r="Q3" t="n">
-        <v>183.1178003332298</v>
+        <v>249.4645907423243</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L5" t="n">
-        <v>327.2896114605464</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M5" t="n">
         <v>322.8857137945909</v>
@@ -8228,7 +8228,7 @@
         <v>322.1275134696619</v>
       </c>
       <c r="O5" t="n">
-        <v>317.2001799443227</v>
+        <v>244.4743776485593</v>
       </c>
       <c r="P5" t="n">
         <v>187.8768090511565</v>
@@ -8298,22 +8298,22 @@
         <v>247.7255684640984</v>
       </c>
       <c r="L6" t="n">
-        <v>248.3048328685796</v>
+        <v>181.9580424594851</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>251.2133018590717</v>
       </c>
       <c r="N6" t="n">
-        <v>106.7151410677083</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O6" t="n">
-        <v>251.5888479085429</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>183.1178003332298</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8535,7 +8535,7 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>482.0924488944969</v>
+        <v>264.6642244265669</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
@@ -8547,10 +8547,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>355.9386573756997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>88.51666270074472</v>
+        <v>88.51666270074477</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8775,10 +8775,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>323.2062717075955</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>340.9347754792148</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>88.51666270074475</v>
       </c>
       <c r="K15" t="n">
-        <v>87.14685802055696</v>
+        <v>240.6032690246663</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9021,10 +9021,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>313.0475549185227</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>94.09170198088468</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>265.5330922374285</v>
+        <v>444.5418643131468</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>94.09170198088468</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>88.51666270074475</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>323.2062717075946</v>
       </c>
       <c r="N21" t="n">
-        <v>265.5330922374289</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9723,10 +9723,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>362.431972140849</v>
       </c>
       <c r="N24" t="n">
-        <v>380.1604759124687</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>88.51666270074475</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>559.1692479881874</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>105.5175465642396</v>
+        <v>94.09170198088468</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>88.51666270074475</v>
+        <v>88.51666270074476</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10434,7 +10434,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>437.8336553826352</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>105.51754656424</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10671,7 +10671,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>362.4319721408494</v>
+        <v>362.431972140849</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>99.94250728410029</v>
+        <v>88.51666270074475</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.09170198088468</v>
+        <v>105.5175465642405</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>88.51666270074475</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>176.221880623988</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>380.1604759124691</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>88.51666270074475</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11382,10 +11382,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>437.8336553826357</v>
       </c>
       <c r="N45" t="n">
-        <v>380.1604759124687</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>282.5082015186659</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>270.5195184763477</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.256295573159115</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>304.0604309302996</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>113.2614276560307</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>144.7185712673024</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>251.314678236802</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>160.2624152145881</v>
+        <v>270.6149364695485</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>206.3799855320638</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>283.2429600907812</v>
+        <v>49.51427969636285</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>218.9526409242344</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>52.40591839253199</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>113.2614276560307</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>144.7185712673024</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>282.0115342657473</v>
       </c>
     </row>
     <row r="15">
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>13.4317051519659</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>86.94247796926075</v>
       </c>
       <c r="V17" t="n">
-        <v>112.3462987399091</v>
+        <v>11.97211561868184</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>112.3462987399091</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>43.42925922995182</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>13.43170515196579</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>55.4853343579892</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>52.405918392532</v>
+        <v>52.40591839253197</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>42.36671692063785</v>
+        <v>42.36671692063747</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>94.77263531316903</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>94.77263531316942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>87.58522423400112</v>
+        <v>87.58522423400001</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>67.95649247273531</v>
+        <v>87.58522423399971</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.62873176126655</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>746628.0868486727</v>
+        <v>746628.0868486726</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>746628.0868486727</v>
+        <v>746628.0868486726</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815185.2763240556</v>
+        <v>815185.2763240557</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>817191.6650663017</v>
+        <v>817191.6650663019</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>817763.7829882036</v>
+        <v>817763.7829882038</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26320,40 @@
         <v>575718.0453706365</v>
       </c>
       <c r="E2" t="n">
+        <v>517593.0792293257</v>
+      </c>
+      <c r="F2" t="n">
         <v>517593.0792293259</v>
       </c>
-      <c r="F2" t="n">
-        <v>517593.0792293256</v>
-      </c>
       <c r="G2" t="n">
-        <v>569010.9713358645</v>
+        <v>569010.9713358646</v>
       </c>
       <c r="H2" t="n">
-        <v>569010.971335865</v>
+        <v>569010.9713358643</v>
       </c>
       <c r="I2" t="n">
-        <v>575718.0453706376</v>
+        <v>575718.0453706373</v>
       </c>
       <c r="J2" t="n">
-        <v>570060.1190424393</v>
+        <v>570060.1190424392</v>
       </c>
       <c r="K2" t="n">
         <v>570060.1190424393</v>
       </c>
       <c r="L2" t="n">
-        <v>575718.0453706369</v>
+        <v>575718.0453706371</v>
       </c>
       <c r="M2" t="n">
         <v>575718.0453706373</v>
       </c>
       <c r="N2" t="n">
-        <v>575718.0453706374</v>
+        <v>575718.0453706371</v>
       </c>
       <c r="O2" t="n">
-        <v>570489.2074838673</v>
+        <v>570489.2074838671</v>
       </c>
       <c r="P2" t="n">
-        <v>570489.2074838673</v>
+        <v>570489.2074838671</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>121013.3101051827</v>
       </c>
       <c r="E3" t="n">
-        <v>168369.3206512484</v>
+        <v>168369.3206512482</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46220.87463843329</v>
+        <v>46220.87463843333</v>
       </c>
       <c r="H3" t="n">
-        <v>1.13686837721616e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7698.216890129518</v>
+        <v>7698.216890129676</v>
       </c>
       <c r="J3" t="n">
-        <v>127045.2569269014</v>
+        <v>127045.2569269015</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>141051.2528141682</v>
+        <v>141051.2528141681</v>
       </c>
       <c r="M3" t="n">
-        <v>20711.42916233373</v>
+        <v>20711.42916233368</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34897.42615746438</v>
+        <v>34897.42615746456</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,19 +26427,19 @@
         <v>171669.6532792635</v>
       </c>
       <c r="F4" t="n">
-        <v>171669.6532792635</v>
+        <v>171669.6532792634</v>
       </c>
       <c r="G4" t="n">
         <v>210558.1841866762</v>
       </c>
       <c r="H4" t="n">
-        <v>210558.1841866763</v>
+        <v>210558.1841866762</v>
       </c>
       <c r="I4" t="n">
         <v>213675.7195421354</v>
       </c>
       <c r="J4" t="n">
-        <v>210412.0184739517</v>
+        <v>210412.0184739518</v>
       </c>
       <c r="K4" t="n">
         <v>210412.0184739517</v>
@@ -26448,16 +26448,16 @@
         <v>213675.7195421354</v>
       </c>
       <c r="M4" t="n">
-        <v>213675.7195421353</v>
+        <v>213675.7195421354</v>
       </c>
       <c r="N4" t="n">
         <v>213675.7195421354</v>
       </c>
       <c r="O4" t="n">
-        <v>209698.5158989156</v>
+        <v>209698.5158989157</v>
       </c>
       <c r="P4" t="n">
-        <v>209698.5158989156</v>
+        <v>209698.5158989157</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>47596.59336105494</v>
+        <v>47596.59336105492</v>
       </c>
       <c r="F5" t="n">
-        <v>47596.59336105495</v>
+        <v>47596.59336105492</v>
       </c>
       <c r="G5" t="n">
         <v>52453.77174852799</v>
       </c>
       <c r="H5" t="n">
-        <v>52453.77174852802</v>
+        <v>52453.77174852799</v>
       </c>
       <c r="I5" t="n">
         <v>54213.88692153005</v>
       </c>
       <c r="J5" t="n">
-        <v>61365.34444070467</v>
+        <v>61365.34444070468</v>
       </c>
       <c r="K5" t="n">
-        <v>61365.34444070467</v>
+        <v>61365.34444070468</v>
       </c>
       <c r="L5" t="n">
-        <v>54213.88692153006</v>
+        <v>54213.88692153005</v>
       </c>
       <c r="M5" t="n">
         <v>54213.88692153005</v>
@@ -26528,40 +26528,40 @@
         <v>147344.5718914232</v>
       </c>
       <c r="E6" t="n">
-        <v>129957.5119377591</v>
+        <v>129763.7620506214</v>
       </c>
       <c r="F6" t="n">
-        <v>298326.8325890072</v>
+        <v>298133.0827018699</v>
       </c>
       <c r="G6" t="n">
-        <v>259778.140762227</v>
+        <v>259755.7838487778</v>
       </c>
       <c r="H6" t="n">
-        <v>305999.0154006605</v>
+        <v>305976.6584872108</v>
       </c>
       <c r="I6" t="n">
-        <v>300130.2220168426</v>
+        <v>300130.2220168422</v>
       </c>
       <c r="J6" t="n">
-        <v>171237.4992008815</v>
+        <v>171218.6394464539</v>
       </c>
       <c r="K6" t="n">
-        <v>298282.7561277829</v>
+        <v>298263.8963733555</v>
       </c>
       <c r="L6" t="n">
-        <v>166777.1860928031</v>
+        <v>166777.1860928035</v>
       </c>
       <c r="M6" t="n">
         <v>287117.0097446382</v>
       </c>
       <c r="N6" t="n">
-        <v>307828.438906972</v>
+        <v>307828.4389069717</v>
       </c>
       <c r="O6" t="n">
-        <v>272200.3563359746</v>
+        <v>272182.9268763516</v>
       </c>
       <c r="P6" t="n">
-        <v>307097.782493439</v>
+        <v>307080.3530338161</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>165.3709959022146</v>
       </c>
       <c r="H2" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="I2" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="J2" t="n">
         <v>107.594902604173</v>
@@ -26713,19 +26713,19 @@
         <v>107.594902604173</v>
       </c>
       <c r="L2" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="M2" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="N2" t="n">
         <v>165.3709959022147</v>
       </c>
       <c r="O2" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="P2" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>71.54377003796152</v>
+        <v>71.54377003796127</v>
       </c>
       <c r="F3" t="n">
-        <v>71.54377003796152</v>
+        <v>71.54377003796139</v>
       </c>
       <c r="G3" t="n">
         <v>71.54377003796139</v>
@@ -26762,7 +26762,7 @@
         <v>71.54377003796139</v>
       </c>
       <c r="K3" t="n">
-        <v>71.54377003796139</v>
+        <v>71.54377003796129</v>
       </c>
       <c r="L3" t="n">
         <v>71.54377003796139</v>
@@ -26796,16 +26796,16 @@
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>608.4135412367954</v>
+        <v>608.4135412367951</v>
       </c>
       <c r="F4" t="n">
-        <v>608.4135412367955</v>
+        <v>608.4135412367951</v>
       </c>
       <c r="G4" t="n">
-        <v>608.4135412367954</v>
+        <v>608.4135412367951</v>
       </c>
       <c r="H4" t="n">
-        <v>608.4135412367955</v>
+        <v>608.4135412367951</v>
       </c>
       <c r="I4" t="n">
         <v>637.3628039506448</v>
@@ -26814,19 +26814,19 @@
         <v>834.8732629415608</v>
       </c>
       <c r="K4" t="n">
-        <v>834.8732629415608</v>
+        <v>834.8732629415611</v>
       </c>
       <c r="L4" t="n">
+        <v>637.3628039506447</v>
+      </c>
+      <c r="M4" t="n">
         <v>637.3628039506448</v>
-      </c>
-      <c r="M4" t="n">
-        <v>637.3628039506449</v>
       </c>
       <c r="N4" t="n">
         <v>637.3628039506449</v>
       </c>
       <c r="O4" t="n">
-        <v>637.3628039506449</v>
+        <v>637.3628039506448</v>
       </c>
       <c r="P4" t="n">
         <v>637.3628039506448</v>
@@ -26920,16 +26920,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.77609329804162</v>
+        <v>57.77609329804166</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>49.8188093061312</v>
+        <v>49.81880930613131</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>43.62178269683046</v>
+        <v>43.62178269683069</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>71.54377003796152</v>
+        <v>71.54377003796127</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>389.5738019675586</v>
       </c>
       <c r="E4" t="n">
-        <v>83.11033997180505</v>
+        <v>83.11033997180482</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>28.94926271384929</v>
+        <v>28.94926271384963</v>
       </c>
       <c r="J4" t="n">
         <v>333.2398582883478</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>192.0633429766425</v>
+        <v>192.0633429766422</v>
       </c>
       <c r="M4" t="n">
-        <v>83.11033997180516</v>
+        <v>83.11033997180493</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.77609329804162</v>
+        <v>57.77609329804166</v>
       </c>
       <c r="M2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>49.8188093061312</v>
+        <v>49.81880930613131</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>389.5738019675586</v>
       </c>
       <c r="M4" t="n">
-        <v>83.11033997180505</v>
+        <v>83.11033997180482</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.2942316436976</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
@@ -27388,10 +27388,10 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G2" t="n">
-        <v>276.2135473829221</v>
+        <v>382.1243954182812</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>49.6272863185178</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>86.38595750886716</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -27439,10 +27439,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.0958490560165</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>32.24799680979341</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>1.720851342258271</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>46.24409343240548</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>45.99041570010425</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>32.19041054550473</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
@@ -27546,19 +27546,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>15.22644912704888</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>23.21055905217034</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>12.2971642743338</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
@@ -27600,7 +27600,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>206.998118695217</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>254.3737048254072</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -27622,16 +27622,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>382.1243954182812</v>
       </c>
       <c r="H5" t="n">
-        <v>321.6271358598763</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>49.6272863185178</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -27673,7 +27673,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>197.8800820655863</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
@@ -27682,7 +27682,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>22.0958490560165</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>24.35723673402308</v>
       </c>
       <c r="D6" t="n">
         <v>1.720851342258271</v>
       </c>
       <c r="E6" t="n">
-        <v>9.828330546265704</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>38.79830211394711</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>71.04565818573901</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.99041570010425</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>32.19041054550473</v>
       </c>
       <c r="D7" t="n">
-        <v>70.14268727218487</v>
+        <v>15.81177494308312</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>15.22644912704888</v>
+        <v>31.40539352330285</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -27831,7 +27831,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>122.3985520997298</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27840,7 +27840,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>84.0854079222139</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>134.1377903513954</v>
       </c>
       <c r="F8" t="n">
-        <v>335.7487230922028</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27980,16 +27980,16 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V9" t="n">
-        <v>179.3662704274322</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
@@ -28068,7 +28068,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>190.6129898929825</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28077,7 +28077,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>193.2047033629394</v>
       </c>
     </row>
     <row r="11">
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>71.66512436414196</v>
+        <v>71.66512436414203</v>
       </c>
       <c r="S11" t="n">
         <v>107.594902604173</v>
@@ -28184,10 +28184,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>49.94612491323769</v>
       </c>
       <c r="I12" t="n">
-        <v>62.40017382666981</v>
+        <v>62.40017382666984</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28223,7 +28223,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>49.94612491323673</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>71.66512436414196</v>
+        <v>71.665124364142</v>
       </c>
       <c r="S14" t="n">
         <v>107.594902604173</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>107.594902604173</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4.751396135733188</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,10 +28451,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>49.63195820980195</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>62.71434053010476</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28658,10 +28658,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>49.94612491323681</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>62.40017382666982</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>49.63195820980195</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>62.71434053010476</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28770,10 +28770,10 @@
         <v>142.225653955245</v>
       </c>
       <c r="S19" t="n">
+        <v>109.9465235113002</v>
+      </c>
+      <c r="T19" t="n">
         <v>165.3709959022146</v>
-      </c>
-      <c r="T19" t="n">
-        <v>109.9465235113005</v>
       </c>
       <c r="U19" t="n">
         <v>165.3709959022146</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="C20" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="D20" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="E20" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="F20" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="G20" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="H20" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="I20" t="n">
         <v>160.000820996705</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>71.66512436414293</v>
+        <v>71.665124364142</v>
       </c>
       <c r="S20" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="T20" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="U20" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="V20" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="W20" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="X20" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
     </row>
     <row r="21">
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>112.3462987399062</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>112.346298739907</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="C22" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="H22" t="n">
         <v>156.6318727505332</v>
@@ -29004,28 +29004,28 @@
         <v>27.34885865711568</v>
       </c>
       <c r="R22" t="n">
-        <v>142.225653955245</v>
+        <v>86.80118156433056</v>
       </c>
       <c r="S22" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="T22" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="U22" t="n">
-        <v>109.9465235112991</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="V22" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="W22" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="X22" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022146</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="C23" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="D23" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="E23" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="F23" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="G23" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="H23" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="I23" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>15.55133723145826</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29080,31 +29080,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>15.55133723145806</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="S23" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="T23" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="U23" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="V23" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="W23" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="X23" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="C25" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="H25" t="n">
         <v>156.6318727505332</v>
@@ -29217,7 +29217,7 @@
         <v>138.8812304896503</v>
       </c>
       <c r="J25" t="n">
-        <v>22.25980821067306</v>
+        <v>50.3354219444735</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>27.34885865711568</v>
       </c>
       <c r="R25" t="n">
         <v>142.225653955245</v>
       </c>
       <c r="S25" t="n">
-        <v>165.3709959022148</v>
+        <v>109.9465235112993</v>
       </c>
       <c r="T25" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="U25" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="V25" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="W25" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="X25" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.3709959022148</v>
+        <v>165.3709959022147</v>
       </c>
     </row>
     <row r="26">
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="C32" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="D32" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="E32" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="F32" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="G32" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="H32" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="I32" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="J32" t="n">
-        <v>15.55133723145767</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29779,7 +29779,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>15.55133723145775</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="S32" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="T32" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="U32" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="V32" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="W32" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="X32" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="Y32" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
     </row>
     <row r="33">
@@ -29904,10 +29904,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="C34" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
@@ -29919,7 +29919,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="H34" t="n">
         <v>156.6318727505332</v>
@@ -29955,25 +29955,25 @@
         <v>142.225653955245</v>
       </c>
       <c r="S34" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="T34" t="n">
-        <v>109.9465235112979</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="U34" t="n">
-        <v>165.3709959022149</v>
+        <v>109.9465235112984</v>
       </c>
       <c r="V34" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="W34" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="X34" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="Y34" t="n">
-        <v>165.3709959022149</v>
+        <v>165.3709959022148</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="C35" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="D35" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="E35" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="F35" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="G35" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="H35" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="I35" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30028,31 +30028,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>15.55133723145852</v>
+        <v>15.55133723145806</v>
       </c>
       <c r="R35" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="S35" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="T35" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="U35" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="V35" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="W35" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="X35" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="Y35" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
     </row>
     <row r="36">
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-1.293187779083382e-12</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="C37" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30153,10 +30153,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>95.53137603356427</v>
       </c>
       <c r="G37" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="H37" t="n">
         <v>156.6318727505332</v>
@@ -30192,25 +30192,25 @@
         <v>142.225653955245</v>
       </c>
       <c r="S37" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="T37" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="U37" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="V37" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="W37" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="X37" t="n">
-        <v>109.9465235112993</v>
+        <v>165.3709959022148</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.3709959022147</v>
+        <v>165.3709959022148</v>
       </c>
     </row>
     <row r="38">
@@ -30241,10 +30241,10 @@
         <v>165.3709959022147</v>
       </c>
       <c r="I38" t="n">
-        <v>160.000820996705</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="J38" t="n">
-        <v>114.6273836750411</v>
+        <v>15.5513372314587</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>71.665124364142</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="S38" t="n">
         <v>165.3709959022147</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>-8.313350008393172e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30356,7 +30356,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>-1.108446667785756e-12</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30396,7 +30396,7 @@
         <v>165.3709959022147</v>
       </c>
       <c r="H40" t="n">
-        <v>156.6318727505332</v>
+        <v>101.2074003596178</v>
       </c>
       <c r="I40" t="n">
         <v>138.8812304896503</v>
@@ -30429,7 +30429,7 @@
         <v>142.225653955245</v>
       </c>
       <c r="S40" t="n">
-        <v>109.9465235112993</v>
+        <v>165.3709959022147</v>
       </c>
       <c r="T40" t="n">
         <v>165.3709959022147</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="C41" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="D41" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="E41" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="F41" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="G41" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="H41" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="I41" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30502,31 +30502,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>114.627383675041</v>
+        <v>114.6273836750405</v>
       </c>
       <c r="R41" t="n">
         <v>71.665124364142</v>
       </c>
       <c r="S41" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="T41" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="U41" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="V41" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="W41" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="X41" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="Y41" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-1.293187779083382e-12</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="C43" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,7 +30630,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="H43" t="n">
         <v>156.6318727505332</v>
@@ -30642,10 +30642,10 @@
         <v>50.3354219444735</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>6.678699828681623</v>
       </c>
       <c r="L43" t="n">
-        <v>6.678699828682767</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>142.225653955245</v>
       </c>
       <c r="S43" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="T43" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="U43" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="V43" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="W43" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="X43" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="Y43" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="C44" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="D44" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="E44" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="F44" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="G44" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="H44" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="I44" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>114.6273836750407</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30739,31 +30739,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>27.1185387462684</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>159.173969292914</v>
+        <v>71.665124364142</v>
       </c>
       <c r="S44" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="T44" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="U44" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="V44" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="W44" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="X44" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="Y44" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
     </row>
     <row r="45">
@@ -30827,7 +30827,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>-2.557953848736361e-13</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="C46" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,13 +30867,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="H46" t="n">
         <v>156.6318727505332</v>
       </c>
       <c r="I46" t="n">
-        <v>145.559930318333</v>
+        <v>138.8812304896503</v>
       </c>
       <c r="J46" t="n">
         <v>50.3354219444735</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>6.67869982868163</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>142.225653955245</v>
       </c>
       <c r="S46" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="T46" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="U46" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="V46" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="W46" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="X46" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
       <c r="Y46" t="n">
-        <v>159.173969292914</v>
+        <v>159.1739692929141</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2876131458812521</v>
+        <v>0.2876131458812511</v>
       </c>
       <c r="H11" t="n">
-        <v>2.945518130256374</v>
+        <v>2.945518130256364</v>
       </c>
       <c r="I11" t="n">
-        <v>11.08820580658698</v>
+        <v>11.08820580658694</v>
       </c>
       <c r="J11" t="n">
-        <v>24.41080624023894</v>
+        <v>24.41080624023886</v>
       </c>
       <c r="K11" t="n">
-        <v>36.58547070539235</v>
+        <v>36.58547070539223</v>
       </c>
       <c r="L11" t="n">
-        <v>45.38751151865574</v>
+        <v>45.38751151865557</v>
       </c>
       <c r="M11" t="n">
-        <v>50.50235180172145</v>
+        <v>50.50235180172127</v>
       </c>
       <c r="N11" t="n">
-        <v>51.31953265245657</v>
+        <v>51.31953265245638</v>
       </c>
       <c r="O11" t="n">
-        <v>48.45957943309986</v>
+        <v>48.45957943309968</v>
       </c>
       <c r="P11" t="n">
-        <v>41.35912989415644</v>
+        <v>41.35912989415629</v>
       </c>
       <c r="Q11" t="n">
-        <v>31.05898410728409</v>
+        <v>31.05898410728398</v>
       </c>
       <c r="R11" t="n">
-        <v>18.06677927496322</v>
+        <v>18.06677927496316</v>
       </c>
       <c r="S11" t="n">
-        <v>6.55398456176904</v>
+        <v>6.553984561769016</v>
       </c>
       <c r="T11" t="n">
-        <v>1.259026546095182</v>
+        <v>1.259026546095177</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02300905167050016</v>
+        <v>0.02300905167050009</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1538865997042946</v>
+        <v>0.1538865997042941</v>
       </c>
       <c r="H12" t="n">
-        <v>1.486220581354635</v>
+        <v>1.48622058135463</v>
       </c>
       <c r="I12" t="n">
-        <v>5.298288630169793</v>
+        <v>5.298288630169774</v>
       </c>
       <c r="J12" t="n">
-        <v>14.53890896592198</v>
+        <v>14.53890896592192</v>
       </c>
       <c r="K12" t="n">
-        <v>24.84931114610971</v>
+        <v>24.84931114610962</v>
       </c>
       <c r="L12" t="n">
-        <v>33.41296543140835</v>
+        <v>33.41296543140823</v>
       </c>
       <c r="M12" t="n">
-        <v>38.99135467068903</v>
+        <v>38.99135467068889</v>
       </c>
       <c r="N12" t="n">
-        <v>40.02333980642529</v>
+        <v>40.02333980642514</v>
       </c>
       <c r="O12" t="n">
-        <v>36.61353672876697</v>
+        <v>36.61353672876684</v>
       </c>
       <c r="P12" t="n">
-        <v>29.38559113125254</v>
+        <v>29.38559113125243</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.64348946400785</v>
+        <v>19.64348946400778</v>
       </c>
       <c r="R12" t="n">
-        <v>9.554468006201732</v>
+        <v>9.554468006201699</v>
       </c>
       <c r="S12" t="n">
-        <v>2.858376095384593</v>
+        <v>2.858376095384583</v>
       </c>
       <c r="T12" t="n">
-        <v>0.6202709874045907</v>
+        <v>0.6202709874045885</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01012411840159833</v>
+        <v>0.0101241184015983</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1290133558061601</v>
+        <v>0.1290133558061596</v>
       </c>
       <c r="H13" t="n">
-        <v>1.147046017985679</v>
+        <v>1.147046017985675</v>
       </c>
       <c r="I13" t="n">
-        <v>3.87978346369798</v>
+        <v>3.879783463697966</v>
       </c>
       <c r="J13" t="n">
-        <v>9.121244255495519</v>
+        <v>9.121244255495487</v>
       </c>
       <c r="K13" t="n">
-        <v>14.98900624729751</v>
+        <v>14.98900624729745</v>
       </c>
       <c r="L13" t="n">
-        <v>19.18076746230857</v>
+        <v>19.1807674623085</v>
       </c>
       <c r="M13" t="n">
-        <v>20.22342994696017</v>
+        <v>20.2234299469601</v>
       </c>
       <c r="N13" t="n">
-        <v>19.74256198440995</v>
+        <v>19.74256198440988</v>
       </c>
       <c r="O13" t="n">
-        <v>18.23545141885617</v>
+        <v>18.2354514188561</v>
       </c>
       <c r="P13" t="n">
-        <v>15.60357896041049</v>
+        <v>15.60357896041043</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.80310927573219</v>
+        <v>10.80310927573215</v>
       </c>
       <c r="R13" t="n">
-        <v>5.800909616520616</v>
+        <v>5.800909616520595</v>
       </c>
       <c r="S13" t="n">
-        <v>2.248350937094626</v>
+        <v>2.248350937094618</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5512388838990476</v>
+        <v>0.5512388838990456</v>
       </c>
       <c r="U13" t="n">
-        <v>0.007037092134881469</v>
+        <v>0.007037092134881444</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2876131458812521</v>
+        <v>0.2876131458812516</v>
       </c>
       <c r="H14" t="n">
-        <v>2.945518130256374</v>
+        <v>2.945518130256369</v>
       </c>
       <c r="I14" t="n">
-        <v>11.08820580658698</v>
+        <v>11.08820580658696</v>
       </c>
       <c r="J14" t="n">
-        <v>24.41080624023894</v>
+        <v>24.4108062402389</v>
       </c>
       <c r="K14" t="n">
-        <v>36.58547070539235</v>
+        <v>36.58547070539229</v>
       </c>
       <c r="L14" t="n">
-        <v>45.38751151865574</v>
+        <v>45.38751151865566</v>
       </c>
       <c r="M14" t="n">
-        <v>50.50235180172145</v>
+        <v>50.50235180172136</v>
       </c>
       <c r="N14" t="n">
-        <v>51.31953265245657</v>
+        <v>51.31953265245647</v>
       </c>
       <c r="O14" t="n">
-        <v>48.45957943309986</v>
+        <v>48.45957943309977</v>
       </c>
       <c r="P14" t="n">
-        <v>41.35912989415644</v>
+        <v>41.35912989415637</v>
       </c>
       <c r="Q14" t="n">
-        <v>31.05898410728409</v>
+        <v>31.05898410728403</v>
       </c>
       <c r="R14" t="n">
-        <v>18.06677927496322</v>
+        <v>18.06677927496319</v>
       </c>
       <c r="S14" t="n">
-        <v>6.55398456176904</v>
+        <v>6.553984561769028</v>
       </c>
       <c r="T14" t="n">
-        <v>1.259026546095182</v>
+        <v>1.259026546095179</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02300905167050016</v>
+        <v>0.02300905167050012</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1538865997042946</v>
+        <v>0.1538865997042943</v>
       </c>
       <c r="H15" t="n">
-        <v>1.486220581354635</v>
+        <v>1.486220581354632</v>
       </c>
       <c r="I15" t="n">
-        <v>5.298288630169793</v>
+        <v>5.298288630169783</v>
       </c>
       <c r="J15" t="n">
-        <v>14.53890896592198</v>
+        <v>14.53890896592195</v>
       </c>
       <c r="K15" t="n">
-        <v>24.84931114610971</v>
+        <v>24.84931114610967</v>
       </c>
       <c r="L15" t="n">
-        <v>33.41296543140835</v>
+        <v>33.4129654314083</v>
       </c>
       <c r="M15" t="n">
-        <v>38.99135467068903</v>
+        <v>38.99135467068896</v>
       </c>
       <c r="N15" t="n">
-        <v>40.02333980642529</v>
+        <v>40.02333980642522</v>
       </c>
       <c r="O15" t="n">
-        <v>36.61353672876697</v>
+        <v>36.6135367287669</v>
       </c>
       <c r="P15" t="n">
-        <v>29.38559113125254</v>
+        <v>29.38559113125249</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.64348946400785</v>
+        <v>19.64348946400782</v>
       </c>
       <c r="R15" t="n">
-        <v>9.554468006201732</v>
+        <v>9.554468006201716</v>
       </c>
       <c r="S15" t="n">
-        <v>2.858376095384593</v>
+        <v>2.858376095384588</v>
       </c>
       <c r="T15" t="n">
-        <v>0.6202709874045907</v>
+        <v>0.6202709874045896</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01012411840159833</v>
+        <v>0.01012411840159832</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1290133558061601</v>
+        <v>0.1290133558061599</v>
       </c>
       <c r="H16" t="n">
-        <v>1.147046017985679</v>
+        <v>1.147046017985677</v>
       </c>
       <c r="I16" t="n">
-        <v>3.87978346369798</v>
+        <v>3.879783463697973</v>
       </c>
       <c r="J16" t="n">
-        <v>9.121244255495519</v>
+        <v>9.121244255495503</v>
       </c>
       <c r="K16" t="n">
-        <v>14.98900624729751</v>
+        <v>14.98900624729748</v>
       </c>
       <c r="L16" t="n">
-        <v>19.18076746230857</v>
+        <v>19.18076746230854</v>
       </c>
       <c r="M16" t="n">
-        <v>20.22342994696017</v>
+        <v>20.22342994696013</v>
       </c>
       <c r="N16" t="n">
-        <v>19.74256198440995</v>
+        <v>19.74256198440992</v>
       </c>
       <c r="O16" t="n">
-        <v>18.23545141885617</v>
+        <v>18.23545141885613</v>
       </c>
       <c r="P16" t="n">
-        <v>15.60357896041049</v>
+        <v>15.60357896041046</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.80310927573219</v>
+        <v>10.80310927573217</v>
       </c>
       <c r="R16" t="n">
-        <v>5.800909616520616</v>
+        <v>5.800909616520605</v>
       </c>
       <c r="S16" t="n">
-        <v>2.248350937094626</v>
+        <v>2.248350937094622</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5512388838990476</v>
+        <v>0.5512388838990466</v>
       </c>
       <c r="U16" t="n">
-        <v>0.007037092134881469</v>
+        <v>0.007037092134881456</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2876131458812516</v>
+        <v>0.2876131458812512</v>
       </c>
       <c r="H29" t="n">
-        <v>2.945518130256369</v>
+        <v>2.945518130256365</v>
       </c>
       <c r="I29" t="n">
-        <v>11.08820580658696</v>
+        <v>11.08820580658695</v>
       </c>
       <c r="J29" t="n">
-        <v>24.4108062402389</v>
+        <v>24.41080624023887</v>
       </c>
       <c r="K29" t="n">
-        <v>36.58547070539229</v>
+        <v>36.58547070539224</v>
       </c>
       <c r="L29" t="n">
-        <v>45.38751151865566</v>
+        <v>45.38751151865559</v>
       </c>
       <c r="M29" t="n">
-        <v>50.50235180172136</v>
+        <v>50.50235180172129</v>
       </c>
       <c r="N29" t="n">
-        <v>51.31953265245647</v>
+        <v>51.3195326524564</v>
       </c>
       <c r="O29" t="n">
-        <v>48.45957943309977</v>
+        <v>48.45957943309971</v>
       </c>
       <c r="P29" t="n">
-        <v>41.35912989415637</v>
+        <v>41.35912989415631</v>
       </c>
       <c r="Q29" t="n">
-        <v>31.05898410728403</v>
+        <v>31.05898410728399</v>
       </c>
       <c r="R29" t="n">
-        <v>18.06677927496319</v>
+        <v>18.06677927496316</v>
       </c>
       <c r="S29" t="n">
-        <v>6.553984561769028</v>
+        <v>6.553984561769019</v>
       </c>
       <c r="T29" t="n">
-        <v>1.259026546095179</v>
+        <v>1.259026546095178</v>
       </c>
       <c r="U29" t="n">
-        <v>0.02300905167050012</v>
+        <v>0.02300905167050009</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1538865997042943</v>
+        <v>0.1538865997042941</v>
       </c>
       <c r="H30" t="n">
-        <v>1.486220581354632</v>
+        <v>1.48622058135463</v>
       </c>
       <c r="I30" t="n">
-        <v>5.298288630169783</v>
+        <v>5.298288630169776</v>
       </c>
       <c r="J30" t="n">
-        <v>14.53890896592195</v>
+        <v>14.53890896592193</v>
       </c>
       <c r="K30" t="n">
-        <v>24.84931114610967</v>
+        <v>24.84931114610963</v>
       </c>
       <c r="L30" t="n">
-        <v>33.4129654314083</v>
+        <v>33.41296543140825</v>
       </c>
       <c r="M30" t="n">
-        <v>38.99135467068896</v>
+        <v>38.9913546706889</v>
       </c>
       <c r="N30" t="n">
-        <v>40.02333980642522</v>
+        <v>40.02333980642516</v>
       </c>
       <c r="O30" t="n">
-        <v>36.6135367287669</v>
+        <v>36.61353672876685</v>
       </c>
       <c r="P30" t="n">
-        <v>29.38559113125249</v>
+        <v>29.38559113125245</v>
       </c>
       <c r="Q30" t="n">
-        <v>19.64348946400782</v>
+        <v>19.64348946400779</v>
       </c>
       <c r="R30" t="n">
-        <v>9.554468006201716</v>
+        <v>9.554468006201702</v>
       </c>
       <c r="S30" t="n">
-        <v>2.858376095384588</v>
+        <v>2.858376095384584</v>
       </c>
       <c r="T30" t="n">
-        <v>0.6202709874045896</v>
+        <v>0.6202709874045887</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01012411840159832</v>
+        <v>0.0101241184015983</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1290133558061599</v>
+        <v>0.1290133558061597</v>
       </c>
       <c r="H31" t="n">
-        <v>1.147046017985677</v>
+        <v>1.147046017985675</v>
       </c>
       <c r="I31" t="n">
-        <v>3.879783463697973</v>
+        <v>3.879783463697967</v>
       </c>
       <c r="J31" t="n">
-        <v>9.121244255495503</v>
+        <v>9.12124425549549</v>
       </c>
       <c r="K31" t="n">
-        <v>14.98900624729748</v>
+        <v>14.98900624729746</v>
       </c>
       <c r="L31" t="n">
-        <v>19.18076746230854</v>
+        <v>19.18076746230851</v>
       </c>
       <c r="M31" t="n">
-        <v>20.22342994696013</v>
+        <v>20.2234299469601</v>
       </c>
       <c r="N31" t="n">
-        <v>19.74256198440992</v>
+        <v>19.74256198440989</v>
       </c>
       <c r="O31" t="n">
-        <v>18.23545141885613</v>
+        <v>18.23545141885611</v>
       </c>
       <c r="P31" t="n">
-        <v>15.60357896041046</v>
+        <v>15.60357896041044</v>
       </c>
       <c r="Q31" t="n">
-        <v>10.80310927573217</v>
+        <v>10.80310927573215</v>
       </c>
       <c r="R31" t="n">
-        <v>5.800909616520605</v>
+        <v>5.800909616520597</v>
       </c>
       <c r="S31" t="n">
-        <v>2.248350937094622</v>
+        <v>2.248350937094619</v>
       </c>
       <c r="T31" t="n">
-        <v>0.5512388838990466</v>
+        <v>0.5512388838990459</v>
       </c>
       <c r="U31" t="n">
-        <v>0.007037092134881456</v>
+        <v>0.007037092134881446</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>57.51958086843886</v>
       </c>
       <c r="L2" t="n">
-        <v>130.2453831642022</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M2" t="n">
         <v>135.7293992974318</v>
@@ -34711,7 +34711,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="O2" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>135.7293992974318</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="P3" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.38260888833734</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L5" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>135.7293992974318</v>
@@ -34948,7 +34948,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="O5" t="n">
-        <v>130.2453831642022</v>
+        <v>57.51958086843889</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>135.7293992974318</v>
       </c>
       <c r="L6" t="n">
+        <v>69.38260888833734</v>
+      </c>
+      <c r="M6" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="O6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>69.38260888833734</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>369.5170153233491</v>
+        <v>152.0887908554191</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
@@ -35267,10 +35267,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>247.0844513515564</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>97.13660853600223</v>
+        <v>97.13660853600214</v>
       </c>
       <c r="K11" t="n">
-        <v>279.1515030738598</v>
+        <v>279.1515030738597</v>
       </c>
       <c r="L11" t="n">
-        <v>396.7868782711267</v>
+        <v>396.7868782711265</v>
       </c>
       <c r="M11" t="n">
-        <v>447.7136308452446</v>
+        <v>447.7136308452444</v>
       </c>
       <c r="N11" t="n">
-        <v>433.4724202158058</v>
+        <v>433.4724202158056</v>
       </c>
       <c r="O11" t="n">
-        <v>356.5450182945483</v>
+        <v>356.5450182945481</v>
       </c>
       <c r="P11" t="n">
-        <v>271.8206414659273</v>
+        <v>271.8206414659272</v>
       </c>
       <c r="Q11" t="n">
-        <v>126.4450989421699</v>
+        <v>126.4450989421698</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>256.6579500957952</v>
       </c>
       <c r="L12" t="n">
-        <v>402.9299807547575</v>
+        <v>402.9299807547574</v>
       </c>
       <c r="M12" t="n">
-        <v>246.7137238166446</v>
+        <v>528.9240349840489</v>
       </c>
       <c r="N12" t="n">
-        <v>556.4532853853365</v>
+        <v>274.2429742179316</v>
       </c>
       <c r="O12" t="n">
-        <v>432.7751031774042</v>
+        <v>432.7751031774041</v>
       </c>
       <c r="P12" t="n">
         <v>334.5329843390275</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.0087720757192</v>
+        <v>179.0087720757191</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>225.2885828065541</v>
       </c>
       <c r="P13" t="n">
-        <v>186.8030105829045</v>
+        <v>186.8030105829044</v>
       </c>
       <c r="Q13" t="n">
         <v>80.24604394705733</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>97.13660853600223</v>
+        <v>97.13660853600219</v>
       </c>
       <c r="K14" t="n">
-        <v>279.1515030738598</v>
+        <v>279.1515030738597</v>
       </c>
       <c r="L14" t="n">
-        <v>396.7868782711267</v>
+        <v>396.7868782711266</v>
       </c>
       <c r="M14" t="n">
         <v>447.7136308452446</v>
       </c>
       <c r="N14" t="n">
-        <v>433.4724202158058</v>
+        <v>433.4724202158057</v>
       </c>
       <c r="O14" t="n">
-        <v>356.5450182945483</v>
+        <v>356.5450182945482</v>
       </c>
       <c r="P14" t="n">
         <v>271.8206414659273</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>75.40168324178677</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>153.4564110041093</v>
       </c>
       <c r="L15" t="n">
-        <v>402.9299807547575</v>
+        <v>402.9299807547574</v>
       </c>
       <c r="M15" t="n">
-        <v>528.9240349840491</v>
+        <v>528.9240349840489</v>
       </c>
       <c r="N15" t="n">
         <v>556.4532853853365</v>
@@ -35741,10 +35741,10 @@
         <v>432.7751031774042</v>
       </c>
       <c r="P15" t="n">
-        <v>233.5789400256319</v>
+        <v>334.5329843390275</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.0087720757192</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.25948065969952</v>
+        <v>57.25948065969949</v>
       </c>
       <c r="K16" t="n">
         <v>156.5275328359588</v>
@@ -35817,13 +35817,13 @@
         <v>246.9559916083813</v>
       </c>
       <c r="O16" t="n">
-        <v>225.2885828065541</v>
+        <v>225.288582806554</v>
       </c>
       <c r="P16" t="n">
-        <v>186.8030105829045</v>
+        <v>186.8030105829044</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.24604394705733</v>
+        <v>80.2460439470573</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>528.9240349840489</v>
       </c>
       <c r="N18" t="n">
-        <v>198.8412909761454</v>
+        <v>377.8500630518637</v>
       </c>
       <c r="O18" t="n">
         <v>432.7751031774042</v>
@@ -35981,7 +35981,7 @@
         <v>334.5329843390275</v>
       </c>
       <c r="Q18" t="n">
-        <v>179.0087720757192</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>126.4450989421699</v>
       </c>
       <c r="R20" t="n">
-        <v>9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>75.40168324178674</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>256.6579500957952</v>
@@ -36206,10 +36206,10 @@
         <v>402.9299807547574</v>
       </c>
       <c r="M21" t="n">
-        <v>528.9240349840489</v>
+        <v>246.7137238166437</v>
       </c>
       <c r="N21" t="n">
-        <v>198.8412909761458</v>
+        <v>556.4532853853365</v>
       </c>
       <c r="O21" t="n">
         <v>432.7751031774042</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>5.370174905509808</v>
+        <v>5.370174905509751</v>
       </c>
       <c r="J23" t="n">
-        <v>97.13660853600219</v>
+        <v>112.6879457674604</v>
       </c>
       <c r="K23" t="n">
         <v>279.1515030738597</v>
@@ -36376,10 +36376,10 @@
         <v>271.8206414659273</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.996436173628</v>
+        <v>126.4450989421699</v>
       </c>
       <c r="R23" t="n">
-        <v>93.70587153807278</v>
+        <v>93.70587153807273</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>402.9299807547574</v>
       </c>
       <c r="M24" t="n">
-        <v>528.9240349840489</v>
+        <v>285.939424249898</v>
       </c>
       <c r="N24" t="n">
-        <v>313.4686746511856</v>
+        <v>556.4532853853365</v>
       </c>
       <c r="O24" t="n">
         <v>432.7751031774042</v>
@@ -36616,7 +36616,7 @@
         <v>234.0400015463429</v>
       </c>
       <c r="R26" t="n">
-        <v>35.92977824003099</v>
+        <v>35.92977824003102</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>75.40168324178674</v>
       </c>
       <c r="K27" t="n">
         <v>256.6579500957952</v>
@@ -36683,7 +36683,7 @@
         <v>528.9240349840489</v>
       </c>
       <c r="N27" t="n">
-        <v>556.4532853853365</v>
+        <v>492.4774467269044</v>
       </c>
       <c r="O27" t="n">
         <v>432.7751031774042</v>
@@ -36692,7 +36692,7 @@
         <v>334.5329843390275</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.42584458335487</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>57.25948065969949</v>
+        <v>57.25948065969952</v>
       </c>
       <c r="K28" t="n">
         <v>156.5275328359588</v>
@@ -36765,13 +36765,13 @@
         <v>246.9559916083813</v>
       </c>
       <c r="O28" t="n">
-        <v>225.288582806554</v>
+        <v>225.2885828065541</v>
       </c>
       <c r="P28" t="n">
-        <v>186.8030105829044</v>
+        <v>186.8030105829045</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.2460439470573</v>
+        <v>80.24604394705733</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>204.7315111401752</v>
+        <v>204.7315111401751</v>
       </c>
       <c r="K29" t="n">
         <v>386.7464056780327</v>
       </c>
       <c r="L29" t="n">
-        <v>504.3817808752996</v>
+        <v>504.3817808752995</v>
       </c>
       <c r="M29" t="n">
-        <v>555.3085334494175</v>
+        <v>555.3085334494174</v>
       </c>
       <c r="N29" t="n">
-        <v>541.0673228199787</v>
+        <v>541.0673228199786</v>
       </c>
       <c r="O29" t="n">
-        <v>464.1399208987212</v>
+        <v>464.1399208987211</v>
       </c>
       <c r="P29" t="n">
-        <v>379.4155440701003</v>
+        <v>379.4155440701002</v>
       </c>
       <c r="Q29" t="n">
         <v>234.0400015463429</v>
@@ -36920,10 +36920,10 @@
         <v>528.9240349840489</v>
       </c>
       <c r="N30" t="n">
-        <v>556.4532853853365</v>
+        <v>556.4532853853364</v>
       </c>
       <c r="O30" t="n">
-        <v>432.7751031774042</v>
+        <v>432.7751031774041</v>
       </c>
       <c r="P30" t="n">
         <v>334.5329843390275</v>
@@ -36999,10 +36999,10 @@
         <v>247.0036922759833</v>
       </c>
       <c r="N31" t="n">
-        <v>246.9559916083813</v>
+        <v>246.9559916083812</v>
       </c>
       <c r="O31" t="n">
-        <v>225.2885828065541</v>
+        <v>225.288582806554</v>
       </c>
       <c r="P31" t="n">
         <v>186.8030105829044</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>5.370174905509893</v>
+        <v>5.370174905509836</v>
       </c>
       <c r="J32" t="n">
-        <v>112.6879457674599</v>
+        <v>97.13660853600219</v>
       </c>
       <c r="K32" t="n">
         <v>279.1515030738597</v>
@@ -37075,7 +37075,7 @@
         <v>396.7868782711266</v>
       </c>
       <c r="M32" t="n">
-        <v>447.7136308452446</v>
+        <v>463.2649680767023</v>
       </c>
       <c r="N32" t="n">
         <v>433.4724202158057</v>
@@ -37090,7 +37090,7 @@
         <v>126.4450989421699</v>
       </c>
       <c r="R32" t="n">
-        <v>93.70587153807287</v>
+        <v>93.70587153807281</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>402.9299807547574</v>
       </c>
       <c r="M33" t="n">
-        <v>528.9240349840489</v>
+        <v>361.3411074916843</v>
       </c>
       <c r="N33" t="n">
         <v>556.4532853853365</v>
@@ -37166,7 +37166,7 @@
         <v>334.5329843390275</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.42584458335532</v>
+        <v>179.0087720757192</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>5.370174905509751</v>
+        <v>5.370174905509836</v>
       </c>
       <c r="J35" t="n">
         <v>97.13660853600219</v>
@@ -37324,10 +37324,10 @@
         <v>271.8206414659273</v>
       </c>
       <c r="Q35" t="n">
-        <v>141.9964361736284</v>
+        <v>141.996436173628</v>
       </c>
       <c r="R35" t="n">
-        <v>93.70587153807273</v>
+        <v>93.70587153807281</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>402.9299807547574</v>
       </c>
       <c r="M36" t="n">
-        <v>285.9394242498985</v>
+        <v>285.939424249898</v>
       </c>
       <c r="N36" t="n">
         <v>556.4532853853365</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>5.370174905509751</v>
       </c>
       <c r="J38" t="n">
-        <v>211.7639922110433</v>
+        <v>112.6879457674609</v>
       </c>
       <c r="K38" t="n">
         <v>279.1515030738597</v>
@@ -37564,7 +37564,7 @@
         <v>126.4450989421699</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>93.70587153807273</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>11.42584458335553</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>256.6579500957952</v>
@@ -37640,7 +37640,7 @@
         <v>334.5329843390275</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>11.42584458335578</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>271.8206414659273</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.0724826172109</v>
+        <v>241.0724826172104</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>75.40168324178674</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>256.6579500957952</v>
+        <v>89.07502260343099</v>
       </c>
       <c r="L42" t="n">
         <v>402.9299807547574</v>
@@ -37868,7 +37868,7 @@
         <v>528.9240349840489</v>
       </c>
       <c r="N42" t="n">
-        <v>313.468674651186</v>
+        <v>556.4532853853365</v>
       </c>
       <c r="O42" t="n">
         <v>432.7751031774042</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>48.93263023178578</v>
+        <v>55.6113300604674</v>
       </c>
       <c r="L43" t="n">
-        <v>127.482779816506</v>
+        <v>120.8040799878232</v>
       </c>
       <c r="M43" t="n">
         <v>139.4087896718104</v>
@@ -38023,7 +38023,7 @@
         <v>396.7868782711266</v>
       </c>
       <c r="M44" t="n">
-        <v>447.7136308452446</v>
+        <v>562.3410145202853</v>
       </c>
       <c r="N44" t="n">
         <v>433.4724202158057</v>
@@ -38035,10 +38035,10 @@
         <v>271.8206414659273</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.5636376884383</v>
+        <v>126.4450989421699</v>
       </c>
       <c r="R44" t="n">
-        <v>87.50884492877199</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>75.40168324178674</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>256.6579500957952</v>
@@ -38102,10 +38102,10 @@
         <v>402.9299807547574</v>
       </c>
       <c r="M45" t="n">
-        <v>528.9240349840489</v>
+        <v>361.3411074916847</v>
       </c>
       <c r="N45" t="n">
-        <v>313.4686746511856</v>
+        <v>556.4532853853365</v>
       </c>
       <c r="O45" t="n">
         <v>432.7751031774042</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>6.678699828682772</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>48.93263023178578</v>
       </c>
       <c r="L46" t="n">
-        <v>120.8040799878232</v>
+        <v>127.4827798165048</v>
       </c>
       <c r="M46" t="n">
         <v>139.4087896718104</v>
